--- a/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.589897072994177</v>
+        <v>2.589897072994916</v>
       </c>
       <c r="C2">
-        <v>1.990281320327881</v>
+        <v>1.990281320328961</v>
       </c>
       <c r="D2">
-        <v>0.1889076081906609</v>
+        <v>0.1889076081907035</v>
       </c>
       <c r="E2">
-        <v>0.02194826017072948</v>
+        <v>0.02194826017079876</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.624240387193822</v>
+        <v>9.624240387193794</v>
       </c>
       <c r="I2">
-        <v>0.00920405993176221</v>
+        <v>0.009204059931754216</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2485292393481444</v>
+        <v>0.2485292393482013</v>
       </c>
       <c r="L2">
-        <v>0.8129191424275248</v>
+        <v>0.8129191424275604</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.192771492594261</v>
+        <v>2.192771492594545</v>
       </c>
       <c r="C3">
-        <v>1.701164439092395</v>
+        <v>1.701164439092338</v>
       </c>
       <c r="D3">
-        <v>0.1634088550631958</v>
+        <v>0.1634088550630679</v>
       </c>
       <c r="E3">
-        <v>0.02046033193800945</v>
+        <v>0.02046033193796681</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.399574611707834</v>
+        <v>8.399574611707976</v>
       </c>
       <c r="I3">
-        <v>0.008137815953368932</v>
+        <v>0.00813781595333074</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0.2157353902143555</v>
       </c>
       <c r="L3">
-        <v>0.6961882457247768</v>
+        <v>0.6961882457247413</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.961226843932479</v>
+        <v>1.961226843932508</v>
       </c>
       <c r="C4">
-        <v>1.530138114496197</v>
+        <v>1.530138114495401</v>
       </c>
       <c r="D4">
-        <v>0.1483422086955528</v>
+        <v>0.1483422086954818</v>
       </c>
       <c r="E4">
-        <v>0.01958320393254098</v>
+        <v>0.01958320393259516</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.670426157827592</v>
+        <v>7.67042615782745</v>
       </c>
       <c r="I4">
-        <v>0.007511017498388561</v>
+        <v>0.007511017498342376</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1963282533442765</v>
+        <v>0.1963282533442481</v>
       </c>
       <c r="L4">
-        <v>0.6276487639184083</v>
+        <v>0.627648763918387</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.869457618595305</v>
+        <v>1.86945761859559</v>
       </c>
       <c r="C5">
-        <v>1.46179743806664</v>
+        <v>1.461797438067038</v>
       </c>
       <c r="D5">
-        <v>0.1423269677334389</v>
+        <v>0.1423269677335384</v>
       </c>
       <c r="E5">
-        <v>0.01923352198337458</v>
+        <v>0.01923352198337902</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.377992284124048</v>
+        <v>7.377992284124161</v>
       </c>
       <c r="I5">
-        <v>0.007261058193680725</v>
+        <v>0.007261058193662073</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1885734849879128</v>
+        <v>0.1885734849879412</v>
       </c>
       <c r="L5">
-        <v>0.6003800918689635</v>
+        <v>0.6003800918690416</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854362428107748</v>
+        <v>1.854362428107777</v>
       </c>
       <c r="C6">
-        <v>1.450523950465538</v>
+        <v>1.450523950465083</v>
       </c>
       <c r="D6">
-        <v>0.1413350363414025</v>
+        <v>0.1413350363410046</v>
       </c>
       <c r="E6">
-        <v>0.0191758886406479</v>
+        <v>0.01917588864067277</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.329690376271145</v>
+        <v>7.329690376271088</v>
       </c>
       <c r="I6">
-        <v>0.007219842554940126</v>
+        <v>0.007219842554973432</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1872943243040837</v>
+        <v>0.1872943243040908</v>
       </c>
       <c r="L6">
         <v>0.5958887903202807</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.95997934500582</v>
+        <v>1.959979345005621</v>
       </c>
       <c r="C7">
         <v>1.529211303443503</v>
       </c>
       <c r="D7">
-        <v>0.1482606095812287</v>
+        <v>0.1482606095815413</v>
       </c>
       <c r="E7">
-        <v>0.0195784583128269</v>
+        <v>0.01957845831285177</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>7.666464517410787</v>
       </c>
       <c r="I7">
-        <v>0.007507626177968518</v>
+        <v>0.007507626177963189</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1962230827359264</v>
+        <v>0.1962230827359406</v>
       </c>
       <c r="L7">
-        <v>0.6272784825055169</v>
+        <v>0.6272784825054956</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.450086557894508</v>
+        <v>2.450086557894394</v>
       </c>
       <c r="C8">
-        <v>1.889063983636106</v>
+        <v>1.889063983635594</v>
       </c>
       <c r="D8">
-        <v>0.179977742364656</v>
+        <v>0.1799777423648408</v>
       </c>
       <c r="E8">
-        <v>0.02142672855313243</v>
+        <v>0.02142672855323369</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.196569367119537</v>
+        <v>9.196569367119764</v>
       </c>
       <c r="I8">
-        <v>0.008829613228970246</v>
+        <v>0.008829613228968469</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.237051567687935</v>
+        <v>0.2370515676879421</v>
       </c>
       <c r="L8">
-        <v>0.7719372628495194</v>
+        <v>0.7719372628495762</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.536933151770427</v>
+        <v>3.536933151769972</v>
       </c>
       <c r="C9">
-        <v>2.661759028923939</v>
+        <v>2.661759028922916</v>
       </c>
       <c r="D9">
-        <v>0.2481693190673298</v>
+        <v>0.2481693190674861</v>
       </c>
       <c r="E9">
-        <v>0.02541927353414408</v>
+        <v>0.02541927353420803</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.43504070886277</v>
+        <v>12.43504070886254</v>
       </c>
       <c r="I9">
-        <v>0.01173125061144908</v>
+        <v>0.01173125061147395</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3245206339927975</v>
+        <v>0.3245206339927691</v>
       </c>
       <c r="L9">
-        <v>1.087514785869374</v>
+        <v>1.087514785869409</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.46361498394549</v>
+        <v>4.463614983944979</v>
       </c>
       <c r="C10">
-        <v>3.298419758412933</v>
+        <v>3.29841975841299</v>
       </c>
       <c r="D10">
-        <v>0.3042934334177687</v>
+        <v>0.3042934334175982</v>
       </c>
       <c r="E10">
-        <v>0.02871979398462088</v>
+        <v>0.02871979398464752</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.06160000878486</v>
+        <v>15.06160000878452</v>
       </c>
       <c r="I10">
-        <v>0.01421593268252153</v>
+        <v>0.01421593268252064</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3962197633957487</v>
+        <v>0.3962197633957203</v>
       </c>
       <c r="L10">
-        <v>1.351586079096251</v>
+        <v>1.351586079096265</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,10 +760,10 @@
         <v>3.612084645675736</v>
       </c>
       <c r="D11">
-        <v>0.3318912326392223</v>
+        <v>0.3318912326397054</v>
       </c>
       <c r="E11">
-        <v>0.03034711868621542</v>
+        <v>0.03034711868619588</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.34264355586055</v>
+        <v>16.34264355586049</v>
       </c>
       <c r="I11">
-        <v>0.01547798345922047</v>
+        <v>0.01547798345920715</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4313839961301653</v>
+        <v>0.4313839961301298</v>
       </c>
       <c r="L11">
-        <v>1.482835813187037</v>
+        <v>1.482835813187052</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.114751951735286</v>
+        <v>5.114751951735343</v>
       </c>
       <c r="C12">
-        <v>3.735404791628639</v>
+        <v>3.735404791628355</v>
       </c>
       <c r="D12">
-        <v>0.3427291512281698</v>
+        <v>0.3427291512285677</v>
       </c>
       <c r="E12">
-        <v>0.03098698702854286</v>
+        <v>0.03098698702845759</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16.84398250832589</v>
+        <v>16.84398250832584</v>
       </c>
       <c r="I12">
-        <v>0.01598165814779051</v>
+        <v>0.01598165814785446</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4451768857529999</v>
+        <v>0.4451768857529146</v>
       </c>
       <c r="L12">
-        <v>1.534630607022208</v>
+        <v>1.534630607022152</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.074500415452178</v>
+        <v>5.07450041545269</v>
       </c>
       <c r="C13">
-        <v>3.7086221571941</v>
+        <v>3.708622157194668</v>
       </c>
       <c r="D13">
-        <v>0.3403760171949841</v>
+        <v>0.3403760171943588</v>
       </c>
       <c r="E13">
-        <v>0.03084801927103697</v>
+        <v>0.03084801927095704</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.7352127644246</v>
+        <v>16.73521276442432</v>
       </c>
       <c r="I13">
-        <v>0.01587189998272098</v>
+        <v>0.01587189998275029</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4421829533627673</v>
+        <v>0.4421829533627459</v>
       </c>
       <c r="L13">
-        <v>1.523372806855775</v>
+        <v>1.523372806855846</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.944818465942149</v>
+        <v>4.944818465941978</v>
       </c>
       <c r="C14">
-        <v>3.62213166662724</v>
+        <v>3.622131666625592</v>
       </c>
       <c r="D14">
         <v>0.3327744875238352</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.38353698389159</v>
+        <v>16.38353698389233</v>
       </c>
       <c r="I14">
-        <v>0.01551885640109241</v>
+        <v>0.01551885640114126</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4325084178763063</v>
+        <v>0.4325084178764058</v>
       </c>
       <c r="L14">
-        <v>1.487051597993485</v>
+        <v>1.487051597993499</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.866555777810049</v>
+        <v>4.86655577780931</v>
       </c>
       <c r="C15">
-        <v>3.569783833281463</v>
+        <v>3.569783833280781</v>
       </c>
       <c r="D15">
-        <v>0.3281719530960601</v>
+        <v>0.3281719530961453</v>
       </c>
       <c r="E15">
-        <v>0.03012763882017921</v>
+        <v>0.0301276388200673</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.17037558747347</v>
+        <v>16.1703755874733</v>
       </c>
       <c r="I15">
-        <v>0.01530620813076933</v>
+        <v>0.01530620813071248</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0.4266485172373748</v>
       </c>
       <c r="L15">
-        <v>1.46509400374164</v>
+        <v>1.465094003741669</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.434205225036408</v>
+        <v>4.434205225036123</v>
       </c>
       <c r="C16">
-        <v>3.278489521999973</v>
+        <v>3.278489521999632</v>
       </c>
       <c r="D16">
-        <v>0.3025384810967324</v>
+        <v>0.3025384810964766</v>
       </c>
       <c r="E16">
-        <v>0.02861640946156996</v>
+        <v>0.02861640946154687</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.97991612994406</v>
+        <v>14.97991612994372</v>
       </c>
       <c r="I16">
-        <v>0.01413663397251241</v>
+        <v>0.01413663397241649</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.393981619856568</v>
+        <v>0.3939816198565609</v>
       </c>
       <c r="L16">
-        <v>1.34327097019829</v>
+        <v>1.343270970198276</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.181637670029772</v>
+        <v>4.181637670029829</v>
       </c>
       <c r="C17">
-        <v>3.106613677032954</v>
+        <v>3.106613677032328</v>
       </c>
       <c r="D17">
-        <v>0.2873979051067295</v>
+        <v>0.2873979051062037</v>
       </c>
       <c r="E17">
-        <v>0.02772495549139364</v>
+        <v>0.02772495549138654</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.2740547797639</v>
+        <v>14.27405477976416</v>
       </c>
       <c r="I17">
-        <v>0.0134570128393765</v>
+        <v>0.01345701283939693</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3746622061657021</v>
+        <v>0.3746622061656382</v>
       </c>
       <c r="L17">
-        <v>1.271688203709743</v>
+        <v>1.271688203709729</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.040414392565708</v>
+        <v>4.040414392565367</v>
       </c>
       <c r="C18">
-        <v>3.009936874422749</v>
+        <v>3.009936874421896</v>
       </c>
       <c r="D18">
-        <v>0.2788772183394315</v>
+        <v>0.2788772183395878</v>
       </c>
       <c r="E18">
-        <v>0.02722364874328065</v>
+        <v>0.027223648743254</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.87588918595114</v>
+        <v>13.87588918595154</v>
       </c>
       <c r="I18">
-        <v>0.0130779943700956</v>
+        <v>0.01307799437006274</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.363781731127979</v>
+        <v>0.3637817311280145</v>
       </c>
       <c r="L18">
-        <v>1.2315254137811</v>
+        <v>1.231525413781057</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.993242550883565</v>
+        <v>3.993242550883451</v>
       </c>
       <c r="C19">
-        <v>2.977550970705181</v>
+        <v>2.977550970704783</v>
       </c>
       <c r="D19">
-        <v>0.2760222185405894</v>
+        <v>0.2760222185410726</v>
       </c>
       <c r="E19">
-        <v>0.02705573863257982</v>
+        <v>0.02705573863259758</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.74232353623447</v>
+        <v>13.74232353623412</v>
       </c>
       <c r="I19">
-        <v>0.01295153586661613</v>
+        <v>0.01295153586668452</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3601347401807189</v>
+        <v>0.3601347401807047</v>
       </c>
       <c r="L19">
-        <v>1.218087881996119</v>
+        <v>1.218087881996077</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.208092555523251</v>
+        <v>4.208092555523706</v>
       </c>
       <c r="C20">
-        <v>3.124677631199347</v>
+        <v>3.124677631200029</v>
       </c>
       <c r="D20">
-        <v>0.288989650851164</v>
+        <v>0.2889896508512066</v>
       </c>
       <c r="E20">
-        <v>0.02781863461872369</v>
+        <v>0.02781863461873257</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.34836088583947</v>
+        <v>14.34836088583944</v>
       </c>
       <c r="I20">
-        <v>0.01352808823166196</v>
+        <v>0.01352808823162199</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3766941381459006</v>
+        <v>0.3766941381458579</v>
       </c>
       <c r="L20">
-        <v>1.279200743048719</v>
+        <v>1.279200743048705</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.982660427099461</v>
+        <v>4.98266042709929</v>
       </c>
       <c r="C21">
-        <v>3.647402210660175</v>
+        <v>3.647402210659322</v>
       </c>
       <c r="D21">
-        <v>0.3349958596810438</v>
+        <v>0.3349958596812428</v>
       </c>
       <c r="E21">
-        <v>0.03053036816905674</v>
+        <v>0.03053036816903898</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.48635497117857</v>
+        <v>16.48635497117812</v>
       </c>
       <c r="I21">
-        <v>0.01562178736113484</v>
+        <v>0.01562178736105491</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4353360491137863</v>
+        <v>0.4353360491137934</v>
       </c>
       <c r="L21">
-        <v>1.497658402280933</v>
+        <v>1.49765840228082</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.539611014914726</v>
+        <v>5.539611014914783</v>
       </c>
       <c r="C22">
-        <v>4.016324085686335</v>
+        <v>4.01632408568787</v>
       </c>
       <c r="D22">
-        <v>0.3673879006691578</v>
+        <v>0.3673879006688594</v>
       </c>
       <c r="E22">
-        <v>0.03244458989484045</v>
+        <v>0.03244458989492216</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.9811418670713</v>
+        <v>17.98114186707102</v>
       </c>
       <c r="I22">
-        <v>0.01714562703273881</v>
+        <v>0.01714562703273526</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4765244164318929</v>
+        <v>0.4765244164319284</v>
       </c>
       <c r="L22">
-        <v>1.653006934165603</v>
+        <v>1.65300693416566</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.236838461661307</v>
+        <v>5.236838461660625</v>
       </c>
       <c r="C23">
-        <v>3.816458908514846</v>
+        <v>3.816458908515244</v>
       </c>
       <c r="D23">
-        <v>0.3498483546046742</v>
+        <v>0.3498483546047453</v>
       </c>
       <c r="E23">
-        <v>0.03140755616341373</v>
+        <v>0.03140755616348656</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.17278482105314</v>
+        <v>17.17278482105297</v>
       </c>
       <c r="I23">
-        <v>0.01631509654858387</v>
+        <v>0.01631509654857588</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4542321145328074</v>
+        <v>0.4542321145327932</v>
       </c>
       <c r="L23">
-        <v>1.568730999457742</v>
+        <v>1.568730999457756</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.196120043411099</v>
+        <v>4.196120043411042</v>
       </c>
       <c r="C24">
-        <v>3.116504337788513</v>
+        <v>3.116504337787717</v>
       </c>
       <c r="D24">
-        <v>0.2882694563471944</v>
+        <v>0.2882694563472938</v>
       </c>
       <c r="E24">
         <v>0.02777624778219057</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.31474355820316</v>
+        <v>14.31474355820296</v>
       </c>
       <c r="I24">
-        <v>0.01349591906505765</v>
+        <v>0.0134959190650612</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3757748039508755</v>
+        <v>0.3757748039508328</v>
       </c>
       <c r="L24">
-        <v>1.275801271707948</v>
+        <v>1.275801271707877</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.224915492576486</v>
+        <v>3.224915492576315</v>
       </c>
       <c r="C25">
-        <v>2.443064355946888</v>
+        <v>2.44306435594666</v>
       </c>
       <c r="D25">
-        <v>0.2288697224898897</v>
+        <v>0.2288697224898755</v>
       </c>
       <c r="E25">
-        <v>0.02428715723128505</v>
+        <v>0.02428715723116959</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.52438186067224</v>
+        <v>11.52438186067238</v>
       </c>
       <c r="I25">
-        <v>0.01089889739780148</v>
+        <v>0.01089889739780237</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2998057401243983</v>
+        <v>0.2998057401243344</v>
       </c>
       <c r="L25">
-        <v>0.9975993230677247</v>
+        <v>0.9975993230677034</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.589897072994916</v>
+        <v>2.589897072994177</v>
       </c>
       <c r="C2">
-        <v>1.990281320328961</v>
+        <v>1.990281320327881</v>
       </c>
       <c r="D2">
-        <v>0.1889076081907035</v>
+        <v>0.1889076081906609</v>
       </c>
       <c r="E2">
-        <v>0.02194826017079876</v>
+        <v>0.02194826017072948</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.624240387193794</v>
+        <v>9.624240387193822</v>
       </c>
       <c r="I2">
-        <v>0.009204059931754216</v>
+        <v>0.00920405993176221</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2485292393482013</v>
+        <v>0.2485292393481444</v>
       </c>
       <c r="L2">
-        <v>0.8129191424275604</v>
+        <v>0.8129191424275248</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.192771492594545</v>
+        <v>2.192771492594261</v>
       </c>
       <c r="C3">
-        <v>1.701164439092338</v>
+        <v>1.701164439092395</v>
       </c>
       <c r="D3">
-        <v>0.1634088550630679</v>
+        <v>0.1634088550631958</v>
       </c>
       <c r="E3">
-        <v>0.02046033193796681</v>
+        <v>0.02046033193800945</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.399574611707976</v>
+        <v>8.399574611707834</v>
       </c>
       <c r="I3">
-        <v>0.00813781595333074</v>
+        <v>0.008137815953368932</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0.2157353902143555</v>
       </c>
       <c r="L3">
-        <v>0.6961882457247413</v>
+        <v>0.6961882457247768</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.961226843932508</v>
+        <v>1.961226843932479</v>
       </c>
       <c r="C4">
-        <v>1.530138114495401</v>
+        <v>1.530138114496197</v>
       </c>
       <c r="D4">
-        <v>0.1483422086954818</v>
+        <v>0.1483422086955528</v>
       </c>
       <c r="E4">
-        <v>0.01958320393259516</v>
+        <v>0.01958320393254098</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.67042615782745</v>
+        <v>7.670426157827592</v>
       </c>
       <c r="I4">
-        <v>0.007511017498342376</v>
+        <v>0.007511017498388561</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1963282533442481</v>
+        <v>0.1963282533442765</v>
       </c>
       <c r="L4">
-        <v>0.627648763918387</v>
+        <v>0.6276487639184083</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.86945761859559</v>
+        <v>1.869457618595305</v>
       </c>
       <c r="C5">
-        <v>1.461797438067038</v>
+        <v>1.46179743806664</v>
       </c>
       <c r="D5">
-        <v>0.1423269677335384</v>
+        <v>0.1423269677334389</v>
       </c>
       <c r="E5">
-        <v>0.01923352198337902</v>
+        <v>0.01923352198337458</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.377992284124161</v>
+        <v>7.377992284124048</v>
       </c>
       <c r="I5">
-        <v>0.007261058193662073</v>
+        <v>0.007261058193680725</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1885734849879412</v>
+        <v>0.1885734849879128</v>
       </c>
       <c r="L5">
-        <v>0.6003800918690416</v>
+        <v>0.6003800918689635</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854362428107777</v>
+        <v>1.854362428107748</v>
       </c>
       <c r="C6">
-        <v>1.450523950465083</v>
+        <v>1.450523950465538</v>
       </c>
       <c r="D6">
-        <v>0.1413350363410046</v>
+        <v>0.1413350363414025</v>
       </c>
       <c r="E6">
-        <v>0.01917588864067277</v>
+        <v>0.0191758886406479</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.329690376271088</v>
+        <v>7.329690376271145</v>
       </c>
       <c r="I6">
-        <v>0.007219842554973432</v>
+        <v>0.007219842554940126</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1872943243040908</v>
+        <v>0.1872943243040837</v>
       </c>
       <c r="L6">
         <v>0.5958887903202807</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.959979345005621</v>
+        <v>1.95997934500582</v>
       </c>
       <c r="C7">
         <v>1.529211303443503</v>
       </c>
       <c r="D7">
-        <v>0.1482606095815413</v>
+        <v>0.1482606095812287</v>
       </c>
       <c r="E7">
-        <v>0.01957845831285177</v>
+        <v>0.0195784583128269</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>7.666464517410787</v>
       </c>
       <c r="I7">
-        <v>0.007507626177963189</v>
+        <v>0.007507626177968518</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1962230827359406</v>
+        <v>0.1962230827359264</v>
       </c>
       <c r="L7">
-        <v>0.6272784825054956</v>
+        <v>0.6272784825055169</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.450086557894394</v>
+        <v>2.450086557894508</v>
       </c>
       <c r="C8">
-        <v>1.889063983635594</v>
+        <v>1.889063983636106</v>
       </c>
       <c r="D8">
-        <v>0.1799777423648408</v>
+        <v>0.179977742364656</v>
       </c>
       <c r="E8">
-        <v>0.02142672855323369</v>
+        <v>0.02142672855313243</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.196569367119764</v>
+        <v>9.196569367119537</v>
       </c>
       <c r="I8">
-        <v>0.008829613228968469</v>
+        <v>0.008829613228970246</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2370515676879421</v>
+        <v>0.237051567687935</v>
       </c>
       <c r="L8">
-        <v>0.7719372628495762</v>
+        <v>0.7719372628495194</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.536933151769972</v>
+        <v>3.536933151770427</v>
       </c>
       <c r="C9">
-        <v>2.661759028922916</v>
+        <v>2.661759028923939</v>
       </c>
       <c r="D9">
-        <v>0.2481693190674861</v>
+        <v>0.2481693190673298</v>
       </c>
       <c r="E9">
-        <v>0.02541927353420803</v>
+        <v>0.02541927353414408</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.43504070886254</v>
+        <v>12.43504070886277</v>
       </c>
       <c r="I9">
-        <v>0.01173125061147395</v>
+        <v>0.01173125061144908</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3245206339927691</v>
+        <v>0.3245206339927975</v>
       </c>
       <c r="L9">
-        <v>1.087514785869409</v>
+        <v>1.087514785869374</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.463614983944979</v>
+        <v>4.46361498394549</v>
       </c>
       <c r="C10">
-        <v>3.29841975841299</v>
+        <v>3.298419758412933</v>
       </c>
       <c r="D10">
-        <v>0.3042934334175982</v>
+        <v>0.3042934334177687</v>
       </c>
       <c r="E10">
-        <v>0.02871979398464752</v>
+        <v>0.02871979398462088</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.06160000878452</v>
+        <v>15.06160000878486</v>
       </c>
       <c r="I10">
-        <v>0.01421593268252064</v>
+        <v>0.01421593268252153</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3962197633957203</v>
+        <v>0.3962197633957487</v>
       </c>
       <c r="L10">
-        <v>1.351586079096265</v>
+        <v>1.351586079096251</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,10 +760,10 @@
         <v>3.612084645675736</v>
       </c>
       <c r="D11">
-        <v>0.3318912326397054</v>
+        <v>0.3318912326392223</v>
       </c>
       <c r="E11">
-        <v>0.03034711868619588</v>
+        <v>0.03034711868621542</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.34264355586049</v>
+        <v>16.34264355586055</v>
       </c>
       <c r="I11">
-        <v>0.01547798345920715</v>
+        <v>0.01547798345922047</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4313839961301298</v>
+        <v>0.4313839961301653</v>
       </c>
       <c r="L11">
-        <v>1.482835813187052</v>
+        <v>1.482835813187037</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.114751951735343</v>
+        <v>5.114751951735286</v>
       </c>
       <c r="C12">
-        <v>3.735404791628355</v>
+        <v>3.735404791628639</v>
       </c>
       <c r="D12">
-        <v>0.3427291512285677</v>
+        <v>0.3427291512281698</v>
       </c>
       <c r="E12">
-        <v>0.03098698702845759</v>
+        <v>0.03098698702854286</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16.84398250832584</v>
+        <v>16.84398250832589</v>
       </c>
       <c r="I12">
-        <v>0.01598165814785446</v>
+        <v>0.01598165814779051</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4451768857529146</v>
+        <v>0.4451768857529999</v>
       </c>
       <c r="L12">
-        <v>1.534630607022152</v>
+        <v>1.534630607022208</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.07450041545269</v>
+        <v>5.074500415452178</v>
       </c>
       <c r="C13">
-        <v>3.708622157194668</v>
+        <v>3.7086221571941</v>
       </c>
       <c r="D13">
-        <v>0.3403760171943588</v>
+        <v>0.3403760171949841</v>
       </c>
       <c r="E13">
-        <v>0.03084801927095704</v>
+        <v>0.03084801927103697</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.73521276442432</v>
+        <v>16.7352127644246</v>
       </c>
       <c r="I13">
-        <v>0.01587189998275029</v>
+        <v>0.01587189998272098</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4421829533627459</v>
+        <v>0.4421829533627673</v>
       </c>
       <c r="L13">
-        <v>1.523372806855846</v>
+        <v>1.523372806855775</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.944818465941978</v>
+        <v>4.944818465942149</v>
       </c>
       <c r="C14">
-        <v>3.622131666625592</v>
+        <v>3.62213166662724</v>
       </c>
       <c r="D14">
         <v>0.3327744875238352</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.38353698389233</v>
+        <v>16.38353698389159</v>
       </c>
       <c r="I14">
-        <v>0.01551885640114126</v>
+        <v>0.01551885640109241</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4325084178764058</v>
+        <v>0.4325084178763063</v>
       </c>
       <c r="L14">
-        <v>1.487051597993499</v>
+        <v>1.487051597993485</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.86655577780931</v>
+        <v>4.866555777810049</v>
       </c>
       <c r="C15">
-        <v>3.569783833280781</v>
+        <v>3.569783833281463</v>
       </c>
       <c r="D15">
-        <v>0.3281719530961453</v>
+        <v>0.3281719530960601</v>
       </c>
       <c r="E15">
-        <v>0.0301276388200673</v>
+        <v>0.03012763882017921</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.1703755874733</v>
+        <v>16.17037558747347</v>
       </c>
       <c r="I15">
-        <v>0.01530620813071248</v>
+        <v>0.01530620813076933</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0.4266485172373748</v>
       </c>
       <c r="L15">
-        <v>1.465094003741669</v>
+        <v>1.46509400374164</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.434205225036123</v>
+        <v>4.434205225036408</v>
       </c>
       <c r="C16">
-        <v>3.278489521999632</v>
+        <v>3.278489521999973</v>
       </c>
       <c r="D16">
-        <v>0.3025384810964766</v>
+        <v>0.3025384810967324</v>
       </c>
       <c r="E16">
-        <v>0.02861640946154687</v>
+        <v>0.02861640946156996</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.97991612994372</v>
+        <v>14.97991612994406</v>
       </c>
       <c r="I16">
-        <v>0.01413663397241649</v>
+        <v>0.01413663397251241</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3939816198565609</v>
+        <v>0.393981619856568</v>
       </c>
       <c r="L16">
-        <v>1.343270970198276</v>
+        <v>1.34327097019829</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.181637670029829</v>
+        <v>4.181637670029772</v>
       </c>
       <c r="C17">
-        <v>3.106613677032328</v>
+        <v>3.106613677032954</v>
       </c>
       <c r="D17">
-        <v>0.2873979051062037</v>
+        <v>0.2873979051067295</v>
       </c>
       <c r="E17">
-        <v>0.02772495549138654</v>
+        <v>0.02772495549139364</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.27405477976416</v>
+        <v>14.2740547797639</v>
       </c>
       <c r="I17">
-        <v>0.01345701283939693</v>
+        <v>0.0134570128393765</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3746622061656382</v>
+        <v>0.3746622061657021</v>
       </c>
       <c r="L17">
-        <v>1.271688203709729</v>
+        <v>1.271688203709743</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.040414392565367</v>
+        <v>4.040414392565708</v>
       </c>
       <c r="C18">
-        <v>3.009936874421896</v>
+        <v>3.009936874422749</v>
       </c>
       <c r="D18">
-        <v>0.2788772183395878</v>
+        <v>0.2788772183394315</v>
       </c>
       <c r="E18">
-        <v>0.027223648743254</v>
+        <v>0.02722364874328065</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.87588918595154</v>
+        <v>13.87588918595114</v>
       </c>
       <c r="I18">
-        <v>0.01307799437006274</v>
+        <v>0.0130779943700956</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3637817311280145</v>
+        <v>0.363781731127979</v>
       </c>
       <c r="L18">
-        <v>1.231525413781057</v>
+        <v>1.2315254137811</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.993242550883451</v>
+        <v>3.993242550883565</v>
       </c>
       <c r="C19">
-        <v>2.977550970704783</v>
+        <v>2.977550970705181</v>
       </c>
       <c r="D19">
-        <v>0.2760222185410726</v>
+        <v>0.2760222185405894</v>
       </c>
       <c r="E19">
-        <v>0.02705573863259758</v>
+        <v>0.02705573863257982</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.74232353623412</v>
+        <v>13.74232353623447</v>
       </c>
       <c r="I19">
-        <v>0.01295153586668452</v>
+        <v>0.01295153586661613</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3601347401807047</v>
+        <v>0.3601347401807189</v>
       </c>
       <c r="L19">
-        <v>1.218087881996077</v>
+        <v>1.218087881996119</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.208092555523706</v>
+        <v>4.208092555523251</v>
       </c>
       <c r="C20">
-        <v>3.124677631200029</v>
+        <v>3.124677631199347</v>
       </c>
       <c r="D20">
-        <v>0.2889896508512066</v>
+        <v>0.288989650851164</v>
       </c>
       <c r="E20">
-        <v>0.02781863461873257</v>
+        <v>0.02781863461872369</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.34836088583944</v>
+        <v>14.34836088583947</v>
       </c>
       <c r="I20">
-        <v>0.01352808823162199</v>
+        <v>0.01352808823166196</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3766941381458579</v>
+        <v>0.3766941381459006</v>
       </c>
       <c r="L20">
-        <v>1.279200743048705</v>
+        <v>1.279200743048719</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.98266042709929</v>
+        <v>4.982660427099461</v>
       </c>
       <c r="C21">
-        <v>3.647402210659322</v>
+        <v>3.647402210660175</v>
       </c>
       <c r="D21">
-        <v>0.3349958596812428</v>
+        <v>0.3349958596810438</v>
       </c>
       <c r="E21">
-        <v>0.03053036816903898</v>
+        <v>0.03053036816905674</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.48635497117812</v>
+        <v>16.48635497117857</v>
       </c>
       <c r="I21">
-        <v>0.01562178736105491</v>
+        <v>0.01562178736113484</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4353360491137934</v>
+        <v>0.4353360491137863</v>
       </c>
       <c r="L21">
-        <v>1.49765840228082</v>
+        <v>1.497658402280933</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.539611014914783</v>
+        <v>5.539611014914726</v>
       </c>
       <c r="C22">
-        <v>4.01632408568787</v>
+        <v>4.016324085686335</v>
       </c>
       <c r="D22">
-        <v>0.3673879006688594</v>
+        <v>0.3673879006691578</v>
       </c>
       <c r="E22">
-        <v>0.03244458989492216</v>
+        <v>0.03244458989484045</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.98114186707102</v>
+        <v>17.9811418670713</v>
       </c>
       <c r="I22">
-        <v>0.01714562703273526</v>
+        <v>0.01714562703273881</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4765244164319284</v>
+        <v>0.4765244164318929</v>
       </c>
       <c r="L22">
-        <v>1.65300693416566</v>
+        <v>1.653006934165603</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.236838461660625</v>
+        <v>5.236838461661307</v>
       </c>
       <c r="C23">
-        <v>3.816458908515244</v>
+        <v>3.816458908514846</v>
       </c>
       <c r="D23">
-        <v>0.3498483546047453</v>
+        <v>0.3498483546046742</v>
       </c>
       <c r="E23">
-        <v>0.03140755616348656</v>
+        <v>0.03140755616341373</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.17278482105297</v>
+        <v>17.17278482105314</v>
       </c>
       <c r="I23">
-        <v>0.01631509654857588</v>
+        <v>0.01631509654858387</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4542321145327932</v>
+        <v>0.4542321145328074</v>
       </c>
       <c r="L23">
-        <v>1.568730999457756</v>
+        <v>1.568730999457742</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.196120043411042</v>
+        <v>4.196120043411099</v>
       </c>
       <c r="C24">
-        <v>3.116504337787717</v>
+        <v>3.116504337788513</v>
       </c>
       <c r="D24">
-        <v>0.2882694563472938</v>
+        <v>0.2882694563471944</v>
       </c>
       <c r="E24">
         <v>0.02777624778219057</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.31474355820296</v>
+        <v>14.31474355820316</v>
       </c>
       <c r="I24">
-        <v>0.0134959190650612</v>
+        <v>0.01349591906505765</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3757748039508328</v>
+        <v>0.3757748039508755</v>
       </c>
       <c r="L24">
-        <v>1.275801271707877</v>
+        <v>1.275801271707948</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.224915492576315</v>
+        <v>3.224915492576486</v>
       </c>
       <c r="C25">
-        <v>2.44306435594666</v>
+        <v>2.443064355946888</v>
       </c>
       <c r="D25">
-        <v>0.2288697224898755</v>
+        <v>0.2288697224898897</v>
       </c>
       <c r="E25">
-        <v>0.02428715723116959</v>
+        <v>0.02428715723128505</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.52438186067238</v>
+        <v>11.52438186067224</v>
       </c>
       <c r="I25">
-        <v>0.01089889739780237</v>
+        <v>0.01089889739780148</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2998057401243344</v>
+        <v>0.2998057401243983</v>
       </c>
       <c r="L25">
-        <v>0.9975993230677034</v>
+        <v>0.9975993230677247</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.589897072994177</v>
+        <v>2.558662801013725</v>
       </c>
       <c r="C2">
-        <v>1.990281320327881</v>
+        <v>1.975737274585867</v>
       </c>
       <c r="D2">
-        <v>0.1889076081906609</v>
+        <v>0.187694582996798</v>
       </c>
       <c r="E2">
-        <v>0.02194826017072948</v>
+        <v>0.02075272451635612</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000784821502059316</v>
       </c>
       <c r="H2">
-        <v>9.624240387193822</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00920405993176221</v>
+        <v>9.63518481160537</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.008498561559870943</v>
       </c>
       <c r="K2">
-        <v>0.2485292393481444</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8129191424275248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.2476524100202155</v>
+      </c>
+      <c r="M2">
+        <v>0.8077548517961759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.192771492594261</v>
+        <v>2.169277193702669</v>
       </c>
       <c r="C3">
-        <v>1.701164439092395</v>
+        <v>1.690992022266471</v>
       </c>
       <c r="D3">
-        <v>0.1634088550631958</v>
+        <v>0.1623611636914006</v>
       </c>
       <c r="E3">
-        <v>0.02046033193800945</v>
+        <v>0.01926516368978515</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008006967716922553</v>
       </c>
       <c r="H3">
-        <v>8.399574611707834</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.008137815953368932</v>
+        <v>8.419068716964802</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.007471910792528291</v>
       </c>
       <c r="K3">
-        <v>0.2157353902143555</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6961882457247768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2151567219742816</v>
+      </c>
+      <c r="M3">
+        <v>0.6927112249948735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.961226843932479</v>
+        <v>1.942362874837784</v>
       </c>
       <c r="C4">
-        <v>1.530138114496197</v>
+        <v>1.522573589556487</v>
       </c>
       <c r="D4">
-        <v>0.1483422086955528</v>
+        <v>0.1473874416048488</v>
       </c>
       <c r="E4">
-        <v>0.01958320393254098</v>
+        <v>0.0183871942204652</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008105279198211839</v>
       </c>
       <c r="H4">
-        <v>7.670426157827592</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.007511017498388561</v>
+        <v>7.694816041624819</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00686889232692689</v>
       </c>
       <c r="K4">
-        <v>0.1963282533442765</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6276487639184083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1959234957503782</v>
+      </c>
+      <c r="M4">
+        <v>0.6251742845689989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.869457618595305</v>
+        <v>1.852461090074513</v>
       </c>
       <c r="C5">
-        <v>1.46179743806664</v>
+        <v>1.455282706194396</v>
       </c>
       <c r="D5">
-        <v>0.1423269677334389</v>
+        <v>0.1414083267440844</v>
       </c>
       <c r="E5">
-        <v>0.01923352198337458</v>
+        <v>0.0180369305077166</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008145639498766191</v>
       </c>
       <c r="H5">
-        <v>7.377992284124048</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.007261058193680725</v>
+        <v>7.404307112330685</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.006628541721364734</v>
       </c>
       <c r="K5">
-        <v>0.1885734849879128</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6003800918689635</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1882378423373225</v>
+      </c>
+      <c r="M5">
+        <v>0.5983083703987404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854362428107748</v>
+        <v>1.837675096479217</v>
       </c>
       <c r="C6">
-        <v>1.450523950465538</v>
+        <v>1.444182913023724</v>
       </c>
       <c r="D6">
-        <v>0.1413350363414025</v>
+        <v>0.1404222994840012</v>
       </c>
       <c r="E6">
-        <v>0.0191758886406479</v>
+        <v>0.01797918687994127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008152361574862432</v>
       </c>
       <c r="H6">
-        <v>7.329690376271145</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.007219842554940126</v>
+        <v>7.356321082432487</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.006588917969127195</v>
       </c>
       <c r="K6">
-        <v>0.1872943243040837</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5958887903202807</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.186970066055558</v>
+      </c>
+      <c r="M6">
+        <v>0.5938836636293203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.95997934500582</v>
+        <v>1.941140626489954</v>
       </c>
       <c r="C7">
-        <v>1.529211303443503</v>
+        <v>1.521660981457444</v>
       </c>
       <c r="D7">
-        <v>0.1482606095812287</v>
+        <v>0.1473063362614369</v>
       </c>
       <c r="E7">
-        <v>0.0195784583128269</v>
+        <v>0.01838244168771386</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008105822199706461</v>
       </c>
       <c r="H7">
-        <v>7.666464517410787</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.007507626177968518</v>
+        <v>7.690880623555955</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.006865630863640781</v>
       </c>
       <c r="K7">
-        <v>0.1962230827359264</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6272784825055169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1958192637138083</v>
+      </c>
+      <c r="M7">
+        <v>0.6248094552416035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.450086557894508</v>
+        <v>2.421553929136792</v>
       </c>
       <c r="C8">
-        <v>1.889063983636106</v>
+        <v>1.876047310598778</v>
       </c>
       <c r="D8">
-        <v>0.179977742364656</v>
+        <v>0.1788237905811059</v>
       </c>
       <c r="E8">
-        <v>0.02142672855313243</v>
+        <v>0.02023156098325352</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007902836174123317</v>
       </c>
       <c r="H8">
-        <v>9.196569367119537</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.008829613228970246</v>
+        <v>9.21054783149674</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.008137911313046864</v>
       </c>
       <c r="K8">
-        <v>0.237051567687935</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7719372628495194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2362798154678885</v>
+      </c>
+      <c r="M8">
+        <v>0.767363454342771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.536933151770427</v>
+        <v>3.487743199347676</v>
       </c>
       <c r="C9">
-        <v>2.661759028923939</v>
+        <v>2.63704227652363</v>
       </c>
       <c r="D9">
-        <v>0.2481693190673298</v>
+        <v>0.246530113630584</v>
       </c>
       <c r="E9">
-        <v>0.02541927353414408</v>
+        <v>0.02421550390503491</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007506601174579837</v>
       </c>
       <c r="H9">
-        <v>12.43504070886277</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01173125061144908</v>
+        <v>12.42460641455676</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0109347728468201</v>
       </c>
       <c r="K9">
-        <v>0.3245206339927975</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.087514785869374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.3229215147453175</v>
+      </c>
+      <c r="M9">
+        <v>1.078389394560496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.46361498394549</v>
+        <v>4.396867824989727</v>
       </c>
       <c r="C10">
-        <v>3.298419758412933</v>
+        <v>3.263755090465509</v>
       </c>
       <c r="D10">
-        <v>0.3042934334177687</v>
+        <v>0.3021885064106442</v>
       </c>
       <c r="E10">
-        <v>0.02871979398462088</v>
+        <v>0.02749975542055694</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007207935132678493</v>
       </c>
       <c r="H10">
-        <v>15.06160000878486</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01421593268252153</v>
+        <v>15.02852342421897</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.01333181426429153</v>
       </c>
       <c r="K10">
-        <v>0.3962197633957487</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.351586079096251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.3938811340197859</v>
+      </c>
+      <c r="M10">
+        <v>1.338536706450626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.929784384520019</v>
+        <v>4.854017554609641</v>
       </c>
       <c r="C11">
-        <v>3.612084645675736</v>
+        <v>3.572320788445836</v>
       </c>
       <c r="D11">
-        <v>0.3318912326392223</v>
+        <v>0.329531030761828</v>
       </c>
       <c r="E11">
-        <v>0.03034711868621542</v>
+        <v>0.02911611820091942</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007067660927097955</v>
       </c>
       <c r="H11">
-        <v>16.34264355586055</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01547798345922047</v>
+        <v>16.29738353375706</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01454937530637679</v>
       </c>
       <c r="K11">
-        <v>0.4313839961301653</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.482835813187037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.4286552353992263</v>
+      </c>
+      <c r="M11">
+        <v>1.467755010353017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.114751951735286</v>
+        <v>5.035350505835709</v>
       </c>
       <c r="C12">
-        <v>3.735404791628639</v>
+        <v>3.693589398741778</v>
       </c>
       <c r="D12">
-        <v>0.3427291512281698</v>
+        <v>0.340263327270776</v>
       </c>
       <c r="E12">
-        <v>0.03098698702854286</v>
+        <v>0.02975113003807373</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007013580200212143</v>
       </c>
       <c r="H12">
-        <v>16.84398250832589</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01598165814779051</v>
+        <v>16.79372044121305</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.01503522504660104</v>
       </c>
       <c r="K12">
-        <v>0.4451768857529999</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.534630607022208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.4422892304661517</v>
+      </c>
+      <c r="M12">
+        <v>1.518728649507622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.074500415452178</v>
+        <v>4.995892994879284</v>
       </c>
       <c r="C13">
-        <v>3.7086221571941</v>
+        <v>3.667254770455145</v>
       </c>
       <c r="D13">
-        <v>0.3403760171949841</v>
+        <v>0.3379333970638356</v>
       </c>
       <c r="E13">
-        <v>0.03084801927103697</v>
+        <v>0.02961324372805585</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007025276684237114</v>
       </c>
       <c r="H13">
-        <v>16.7352127644246</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01587189998272098</v>
+        <v>16.68604775620736</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.01492935593118805</v>
       </c>
       <c r="K13">
-        <v>0.4421829533627673</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.523372806855775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.4393300883522215</v>
+      </c>
+      <c r="M13">
+        <v>1.507650358483971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.944818465942149</v>
+        <v>4.868757531924018</v>
       </c>
       <c r="C14">
-        <v>3.62213166662724</v>
+        <v>3.582201728819769</v>
       </c>
       <c r="D14">
-        <v>0.3327744875238352</v>
+        <v>0.3304057958632001</v>
       </c>
       <c r="E14">
-        <v>0.03039924866660293</v>
+        <v>0.02916786422393258</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007063233232233963</v>
       </c>
       <c r="H14">
-        <v>16.38353698389159</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01551885640109241</v>
+        <v>16.3378741042593</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.01458880370693993</v>
       </c>
       <c r="K14">
-        <v>0.4325084178763063</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.487051597993485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.4297668341388459</v>
+      </c>
+      <c r="M14">
+        <v>1.471904401462865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.866555777810049</v>
+        <v>4.792023440975811</v>
       </c>
       <c r="C15">
-        <v>3.569783833281463</v>
+        <v>3.53071723367384</v>
       </c>
       <c r="D15">
-        <v>0.3281719530960601</v>
+        <v>0.3258472756162831</v>
       </c>
       <c r="E15">
-        <v>0.03012763882017921</v>
+        <v>0.02889823230536059</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007086345819967616</v>
       </c>
       <c r="H15">
-        <v>16.17037558747347</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01530620813076933</v>
+        <v>16.12680282693645</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.01438366761458809</v>
       </c>
       <c r="K15">
-        <v>0.4266485172373748</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.46509400374164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.4239735131066453</v>
+      </c>
+      <c r="M15">
+        <v>1.4502917838728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.434205225036408</v>
+        <v>4.368021424577819</v>
       </c>
       <c r="C16">
-        <v>3.278489521999973</v>
+        <v>3.244143678051444</v>
       </c>
       <c r="D16">
-        <v>0.3025384810967324</v>
+        <v>0.3004491592357539</v>
       </c>
       <c r="E16">
-        <v>0.02861640946156996</v>
+        <v>0.02739700108533505</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007216988002854389</v>
       </c>
       <c r="H16">
-        <v>14.97991612994406</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01413663397251241</v>
+        <v>14.94758899694386</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01325530643534467</v>
       </c>
       <c r="K16">
-        <v>0.393981619856568</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.34327097019829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.3916671465391488</v>
+      </c>
+      <c r="M16">
+        <v>1.330348157503096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.181637670029772</v>
+        <v>4.120270034853661</v>
       </c>
       <c r="C17">
-        <v>3.106613677032954</v>
+        <v>3.074994780476004</v>
       </c>
       <c r="D17">
-        <v>0.2873979051067295</v>
+        <v>0.2854402794503272</v>
       </c>
       <c r="E17">
-        <v>0.02772495549139364</v>
+        <v>0.02651065692595012</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007295801567082094</v>
       </c>
       <c r="H17">
-        <v>14.2740547797639</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0134570128393765</v>
+        <v>14.24807591510154</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.01259960256884263</v>
       </c>
       <c r="K17">
-        <v>0.3746622061657021</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.271688203709743</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.3725531562300901</v>
+      </c>
+      <c r="M17">
+        <v>1.259845700271399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.040414392565708</v>
+        <v>3.981725269168066</v>
       </c>
       <c r="C18">
-        <v>3.009936874422749</v>
+        <v>2.979835445171716</v>
       </c>
       <c r="D18">
-        <v>0.2788772183394315</v>
+        <v>0.2769914698678093</v>
       </c>
       <c r="E18">
-        <v>0.02722364874328065</v>
+        <v>0.02601196939873418</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007340742566892544</v>
       </c>
       <c r="H18">
-        <v>13.87588918595114</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0130779943700956</v>
+        <v>13.85339372813542</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.01223393043619225</v>
       </c>
       <c r="K18">
-        <v>0.363781731127979</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.2315254137811</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.3617860507420758</v>
+      </c>
+      <c r="M18">
+        <v>1.220282389532827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.993242550883565</v>
+        <v>3.935446252243537</v>
       </c>
       <c r="C19">
-        <v>2.977550970705181</v>
+        <v>2.947955470573731</v>
       </c>
       <c r="D19">
-        <v>0.2760222185405894</v>
+        <v>0.2741602053046819</v>
       </c>
       <c r="E19">
-        <v>0.02705573863257982</v>
+        <v>0.02584489572122273</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000735590010017444</v>
       </c>
       <c r="H19">
-        <v>13.74232353623447</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01295153586661613</v>
+        <v>13.72098142934425</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.01211192771800285</v>
       </c>
       <c r="K19">
-        <v>0.3601347401807189</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.218087881996119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.3581767040085424</v>
+      </c>
+      <c r="M19">
+        <v>1.207044460225731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.208092555523251</v>
+        <v>4.146222124911674</v>
       </c>
       <c r="C20">
-        <v>3.124677631199347</v>
+        <v>3.092773947448791</v>
       </c>
       <c r="D20">
-        <v>0.288989650851164</v>
+        <v>0.28701842231348</v>
       </c>
       <c r="E20">
-        <v>0.02781863461872369</v>
+        <v>0.0266038263274293</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007287454182161782</v>
       </c>
       <c r="H20">
-        <v>14.34836088583947</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01352808823166196</v>
+        <v>14.32172430575943</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.01266817621684613</v>
       </c>
       <c r="K20">
-        <v>0.3766941381459006</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.279200743048719</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.3745637357604608</v>
+      </c>
+      <c r="M20">
+        <v>1.267245600004642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.982660427099461</v>
+        <v>4.905858207969629</v>
       </c>
       <c r="C21">
-        <v>3.647402210660175</v>
+        <v>3.607053726945992</v>
       </c>
       <c r="D21">
-        <v>0.3349958596810438</v>
+        <v>0.3326057247837753</v>
       </c>
       <c r="E21">
-        <v>0.03053036816905674</v>
+        <v>0.02929800884484912</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.000705211375277544</v>
       </c>
       <c r="H21">
-        <v>16.48635497117857</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01562178736113484</v>
+        <v>16.43967519694701</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.01468809543462779</v>
       </c>
       <c r="K21">
-        <v>0.4353360491137863</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.497658402280933</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.4325621179964827</v>
+      </c>
+      <c r="M21">
+        <v>1.482343820167245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.539611014914726</v>
+        <v>5.451710863260871</v>
       </c>
       <c r="C22">
-        <v>4.016324085686335</v>
+        <v>3.969720202697204</v>
       </c>
       <c r="D22">
-        <v>0.3673879006691578</v>
+        <v>0.3646693809390626</v>
       </c>
       <c r="E22">
-        <v>0.03244458989484045</v>
+        <v>0.03119647585497454</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006892453780062979</v>
       </c>
       <c r="H22">
-        <v>17.9811418670713</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01714562703273881</v>
+        <v>17.91899496930523</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.01615774265274172</v>
       </c>
       <c r="K22">
-        <v>0.4765244164318929</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.653006934165603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.473261822289345</v>
+      </c>
+      <c r="M22">
+        <v>1.635179743884933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.236838461661307</v>
+        <v>5.155017519692706</v>
       </c>
       <c r="C23">
-        <v>3.816458908514846</v>
+        <v>3.773279017151822</v>
       </c>
       <c r="D23">
-        <v>0.3498483546046742</v>
+        <v>0.3473113891570421</v>
       </c>
       <c r="E23">
-        <v>0.03140755616341373</v>
+        <v>0.03016833501529348</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006978343257306221</v>
       </c>
       <c r="H23">
-        <v>17.17278482105314</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01631509654858387</v>
+        <v>17.11916544377681</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0153568302731184</v>
       </c>
       <c r="K23">
-        <v>0.4542321145328074</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.568730999457742</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.4512381884214847</v>
+      </c>
+      <c r="M23">
+        <v>1.552281660032577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.196120043411099</v>
+        <v>4.134477203291681</v>
       </c>
       <c r="C24">
-        <v>3.116504337788513</v>
+        <v>3.08472956038247</v>
       </c>
       <c r="D24">
-        <v>0.2882694563471944</v>
+        <v>0.2863043894392518</v>
       </c>
       <c r="E24">
-        <v>0.02777624778219057</v>
+        <v>0.02656167091685546</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007291229162034674</v>
       </c>
       <c r="H24">
-        <v>14.31474355820316</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01349591906505765</v>
+        <v>14.28840484124609</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.01263713932593902</v>
       </c>
       <c r="K24">
-        <v>0.3757748039508755</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.275801271707948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.3736540695108772</v>
+      </c>
+      <c r="M24">
+        <v>1.263897119205467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.224915492576486</v>
+        <v>3.181604199630044</v>
       </c>
       <c r="C25">
-        <v>2.443064355946888</v>
+        <v>2.421680472925516</v>
       </c>
       <c r="D25">
-        <v>0.2288697224898897</v>
+        <v>0.2273761147401956</v>
       </c>
       <c r="E25">
-        <v>0.02428715723128505</v>
+        <v>0.0230871173678544</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007614367737899501</v>
       </c>
       <c r="H25">
-        <v>11.52438186067224</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01089889739780148</v>
+        <v>11.52116485664772</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.01013206271832257</v>
       </c>
       <c r="K25">
-        <v>0.2998057401243983</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9975993230677247</v>
+        <v>0.2984473371999385</v>
+      </c>
+      <c r="M25">
+        <v>0.9897772750398843</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.558662801013725</v>
+        <v>4.058045044231392</v>
       </c>
       <c r="C2">
-        <v>1.975737274585867</v>
+        <v>0.5344141212619036</v>
       </c>
       <c r="D2">
-        <v>0.187694582996798</v>
+        <v>0.1972535858658233</v>
       </c>
       <c r="E2">
-        <v>0.02075272451635612</v>
+        <v>0.02057563152446384</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000784821502059316</v>
+        <v>0.0008056860613534361</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.63518481160537</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008498561559870943</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9689384276000652</v>
       </c>
       <c r="L2">
-        <v>0.2476524100202155</v>
+        <v>0.3433619548115843</v>
       </c>
       <c r="M2">
-        <v>0.8077548517961759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.718360540114588</v>
+      </c>
+      <c r="O2">
+        <v>2.391674723717841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.169277193702669</v>
+        <v>3.53138821159024</v>
       </c>
       <c r="C3">
-        <v>1.690992022266471</v>
+        <v>0.4588781667072794</v>
       </c>
       <c r="D3">
-        <v>0.1623611636914006</v>
+        <v>0.1697921263234434</v>
       </c>
       <c r="E3">
-        <v>0.01926516368978515</v>
+        <v>0.0200889464611107</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008006967716922553</v>
+        <v>0.000815898624492679</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.419068716964802</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007471910792528291</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8383655812896791</v>
       </c>
       <c r="L3">
-        <v>0.2151567219742816</v>
+        <v>0.3013424588125275</v>
       </c>
       <c r="M3">
-        <v>0.6927112249948735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.711861422544942</v>
+      </c>
+      <c r="O3">
+        <v>2.177838623922725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.942362874837784</v>
+        <v>3.215686966292196</v>
       </c>
       <c r="C4">
-        <v>1.522573589556487</v>
+        <v>0.4133856400755747</v>
       </c>
       <c r="D4">
-        <v>0.1473874416048488</v>
+        <v>0.1532975256676394</v>
       </c>
       <c r="E4">
-        <v>0.0183871942204652</v>
+        <v>0.01981582193486364</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008105279198211839</v>
+        <v>0.0008223143778757893</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.694816041624819</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.00686889232692689</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7600047014997102</v>
       </c>
       <c r="L4">
-        <v>0.1959234957503782</v>
+        <v>0.2762123146596167</v>
       </c>
       <c r="M4">
-        <v>0.6251742845689989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.710367689557899</v>
+      </c>
+      <c r="O4">
+        <v>2.051857218304079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.852461090074513</v>
+        <v>3.088714820980442</v>
       </c>
       <c r="C5">
-        <v>1.455282706194396</v>
+        <v>0.3950335395660431</v>
       </c>
       <c r="D5">
-        <v>0.1414083267440844</v>
+        <v>0.1466548493296216</v>
       </c>
       <c r="E5">
-        <v>0.0180369305077166</v>
+        <v>0.01971060154550042</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008145639498766191</v>
+        <v>0.0008249679134199313</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.404307112330685</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.006628541721364734</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7284655066052821</v>
       </c>
       <c r="L5">
-        <v>0.1882378423373225</v>
+        <v>0.2661195600392432</v>
       </c>
       <c r="M5">
-        <v>0.5983083703987404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.710338408256959</v>
+      </c>
+      <c r="O5">
+        <v>2.001711116321459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.837675096479217</v>
+        <v>3.067725742567404</v>
       </c>
       <c r="C6">
-        <v>1.444182913023724</v>
+        <v>0.3919964509260012</v>
       </c>
       <c r="D6">
-        <v>0.1404222994840012</v>
+        <v>0.145556246843455</v>
       </c>
       <c r="E6">
-        <v>0.01797918687994127</v>
+        <v>0.01969348648010172</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008152361574862432</v>
+        <v>0.0008254109606488303</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.356321082432487</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.006588917969127195</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7232505159417357</v>
       </c>
       <c r="L6">
-        <v>0.186970066055558</v>
+        <v>0.264452041578636</v>
       </c>
       <c r="M6">
-        <v>0.5938836636293203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.710367216906334</v>
+      </c>
+      <c r="O6">
+        <v>1.99345246068782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.941140626489954</v>
+        <v>3.213968090865706</v>
       </c>
       <c r="C7">
-        <v>1.521660981457444</v>
+        <v>0.4131374278294686</v>
       </c>
       <c r="D7">
-        <v>0.1473063362614369</v>
+        <v>0.15320763688608</v>
       </c>
       <c r="E7">
-        <v>0.01838244168771386</v>
+        <v>0.01981437875795677</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008105822199706461</v>
+        <v>0.0008223500029773903</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.690880623555955</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.006865630863640781</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7595778371456845</v>
       </c>
       <c r="L7">
-        <v>0.1958192637138083</v>
+        <v>0.2760756267217204</v>
       </c>
       <c r="M7">
-        <v>0.6248094552416035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.710365009080405</v>
+      </c>
+      <c r="O7">
+        <v>2.051176282941199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.421553929136792</v>
+        <v>3.874703987340922</v>
       </c>
       <c r="C8">
-        <v>1.876047310598778</v>
+        <v>0.5081620500425856</v>
       </c>
       <c r="D8">
-        <v>0.1788237905811059</v>
+        <v>0.1877003439958145</v>
       </c>
       <c r="E8">
-        <v>0.02023156098325352</v>
+        <v>0.02040224577508454</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007902836174123317</v>
+        <v>0.0008091788314510169</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.21054783149674</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.008137911313046864</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9235016383519223</v>
       </c>
       <c r="L8">
-        <v>0.2362798154678885</v>
+        <v>0.3287215890114936</v>
       </c>
       <c r="M8">
-        <v>0.767363454342771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.715570749490951</v>
+      </c>
+      <c r="O8">
+        <v>2.316749560349677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.487743199347676</v>
+        <v>5.2440085954143</v>
       </c>
       <c r="C9">
-        <v>2.63704227652363</v>
+        <v>0.7034178987690893</v>
       </c>
       <c r="D9">
-        <v>0.246530113630584</v>
+        <v>0.2589272925026194</v>
       </c>
       <c r="E9">
-        <v>0.02421550390503491</v>
+        <v>0.02177844820047525</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007506601174579837</v>
+        <v>0.0007843726268629654</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.42460641455676</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0109347728468201</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.262500269432479</v>
       </c>
       <c r="L9">
-        <v>0.3229215147453175</v>
+        <v>0.4383221169143496</v>
       </c>
       <c r="M9">
-        <v>1.078389394560496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.748060610743295</v>
+      </c>
+      <c r="O9">
+        <v>2.887073208839794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.396867824989727</v>
+        <v>6.315429862560563</v>
       </c>
       <c r="C10">
-        <v>3.263755090465509</v>
+        <v>0.8553399538067765</v>
       </c>
       <c r="D10">
-        <v>0.3021885064106442</v>
+        <v>0.3145303985911454</v>
       </c>
       <c r="E10">
-        <v>0.02749975542055694</v>
+        <v>0.02295680835387337</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007207935132678493</v>
+        <v>0.0007665636228895488</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.02852342421897</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01333181426429153</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.527365638793739</v>
       </c>
       <c r="L10">
-        <v>0.3938811340197859</v>
+        <v>0.5244022610383325</v>
       </c>
       <c r="M10">
-        <v>1.338536706450626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.789488518790733</v>
+      </c>
+      <c r="O10">
+        <v>3.348134315639754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.854017554609641</v>
+        <v>6.822561263017576</v>
       </c>
       <c r="C11">
-        <v>3.572320788445836</v>
+        <v>0.927113816857883</v>
       </c>
       <c r="D11">
-        <v>0.329531030761828</v>
+        <v>0.3408277688974977</v>
       </c>
       <c r="E11">
-        <v>0.02911611820091942</v>
+        <v>0.0235374645929376</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007067660927097955</v>
+        <v>0.0007584969516013463</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.29738353375706</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01454937530637679</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.652665894541002</v>
       </c>
       <c r="L11">
-        <v>0.4286552353992263</v>
+        <v>0.5652184847663051</v>
       </c>
       <c r="M11">
-        <v>1.467755010353017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.813220793427291</v>
+      </c>
+      <c r="O11">
+        <v>3.570201739966365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.035350505835709</v>
+        <v>7.017988920118682</v>
       </c>
       <c r="C12">
-        <v>3.693589398741778</v>
+        <v>0.9547586664624248</v>
       </c>
       <c r="D12">
-        <v>0.340263327270776</v>
+        <v>0.3509593182698296</v>
       </c>
       <c r="E12">
-        <v>0.02975113003807373</v>
+        <v>0.02376458081296207</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007013580200212143</v>
+        <v>0.0007554418090956691</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.79372044121305</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01503522504660104</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.700943587952921</v>
       </c>
       <c r="L12">
-        <v>0.4422892304661517</v>
+        <v>0.580957824890362</v>
       </c>
       <c r="M12">
-        <v>1.518728649507622</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.82301857518155</v>
+      </c>
+      <c r="O12">
+        <v>3.65638596831846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.995892994879284</v>
+        <v>6.975739634107015</v>
       </c>
       <c r="C13">
-        <v>3.667254770455145</v>
+        <v>0.9487826719752093</v>
       </c>
       <c r="D13">
-        <v>0.3379333970638356</v>
+        <v>0.3487690847830009</v>
       </c>
       <c r="E13">
-        <v>0.02961324372805585</v>
+        <v>0.02371533105799273</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007025276684237114</v>
+        <v>0.00075609990640646</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.68604775620736</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01492935593118805</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.690506804853072</v>
       </c>
       <c r="L13">
-        <v>0.4393300883522215</v>
+        <v>0.5775546919672507</v>
       </c>
       <c r="M13">
-        <v>1.507650358483971</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.820870458925015</v>
+      </c>
+      <c r="O13">
+        <v>3.637725932736856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.868757531924018</v>
+        <v>6.838567831397256</v>
       </c>
       <c r="C14">
-        <v>3.582201728819769</v>
+        <v>0.9293783181896629</v>
       </c>
       <c r="D14">
-        <v>0.3304057958632001</v>
+        <v>0.3416576404554377</v>
       </c>
       <c r="E14">
-        <v>0.02916786422393258</v>
+        <v>0.02355599943265041</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007063233232233963</v>
+        <v>0.0007582456471060262</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.3378741042593</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01458880370693993</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.656620240973254</v>
       </c>
       <c r="L14">
-        <v>0.4297668341388459</v>
+        <v>0.5665074128355343</v>
       </c>
       <c r="M14">
-        <v>1.471904401462865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1.814009925135963</v>
+      </c>
+      <c r="O14">
+        <v>3.577248215812574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.792023440975811</v>
+        <v>6.755005257487255</v>
       </c>
       <c r="C15">
-        <v>3.53071723367384</v>
+        <v>0.9175559290688398</v>
       </c>
       <c r="D15">
-        <v>0.3258472756162831</v>
+        <v>0.337325189809718</v>
       </c>
       <c r="E15">
-        <v>0.02889823230536059</v>
+        <v>0.02345937287522304</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007086345819967616</v>
+        <v>0.0007595597366496669</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.12680282693645</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01438366761458809</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.635976200639931</v>
       </c>
       <c r="L15">
-        <v>0.4239735131066453</v>
+        <v>0.5597789596760094</v>
       </c>
       <c r="M15">
-        <v>1.4502917838728</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1.809916778738909</v>
+      </c>
+      <c r="O15">
+        <v>3.540486723011128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.368021424577819</v>
+        <v>6.282729747773999</v>
       </c>
       <c r="C16">
-        <v>3.244143678051444</v>
+        <v>0.8507097077653327</v>
       </c>
       <c r="D16">
-        <v>0.3004491592357539</v>
+        <v>0.3128343665457294</v>
       </c>
       <c r="E16">
-        <v>0.02739700108533505</v>
+        <v>0.02291982594639386</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007216988002854389</v>
+        <v>0.0007670910506612069</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.94758899694386</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01325530643534467</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.519285018145112</v>
       </c>
       <c r="L16">
-        <v>0.3916671465391488</v>
+        <v>0.521771845159634</v>
       </c>
       <c r="M16">
-        <v>1.330348157503096</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1.788044728962888</v>
+      </c>
+      <c r="O16">
+        <v>3.333895865765029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.120270034853661</v>
+        <v>5.998422657247431</v>
       </c>
       <c r="C17">
-        <v>3.074994780476004</v>
+        <v>0.8104384433140694</v>
       </c>
       <c r="D17">
-        <v>0.2854402794503272</v>
+        <v>0.2980862047861876</v>
       </c>
       <c r="E17">
-        <v>0.02651065692595012</v>
+        <v>0.02260080144381327</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007295801567082094</v>
+        <v>0.0007717165465244453</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.24807591510154</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01259960256884263</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.449021881354085</v>
       </c>
       <c r="L17">
-        <v>0.3725531562300901</v>
+        <v>0.4989099467033355</v>
       </c>
       <c r="M17">
-        <v>1.259845700271399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.775949949174418</v>
+      </c>
+      <c r="O17">
+        <v>3.210527688368941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.981725269168066</v>
+        <v>5.836716674182924</v>
       </c>
       <c r="C18">
-        <v>2.979835445171716</v>
+        <v>0.7875205077882299</v>
       </c>
       <c r="D18">
-        <v>0.2769914698678093</v>
+        <v>0.2896958890262482</v>
       </c>
       <c r="E18">
-        <v>0.02601196939873418</v>
+        <v>0.02242145037262233</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007340742566892544</v>
+        <v>0.0007743806529491622</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.85339372813542</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01223393043619225</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.409051846414854</v>
       </c>
       <c r="L18">
-        <v>0.3617860507420758</v>
+        <v>0.4859133750716467</v>
       </c>
       <c r="M18">
-        <v>1.220282389532827</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.769445848431857</v>
+      </c>
+      <c r="O18">
+        <v>3.140708041424062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.935446252243537</v>
+        <v>5.782263064189692</v>
       </c>
       <c r="C19">
-        <v>2.947955470573731</v>
+        <v>0.7798006796309664</v>
       </c>
       <c r="D19">
-        <v>0.2741602053046819</v>
+        <v>0.2868701390365231</v>
       </c>
       <c r="E19">
-        <v>0.02584489572122273</v>
+        <v>0.02236141390847735</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000735590010017444</v>
+        <v>0.0007752834517543851</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.72098142934425</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01211192771800285</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.395591022726123</v>
       </c>
       <c r="L19">
-        <v>0.3581767040085424</v>
+        <v>0.4815379878850479</v>
       </c>
       <c r="M19">
-        <v>1.207044460225731</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.767318379208945</v>
+      </c>
+      <c r="O19">
+        <v>3.117254953593317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.146222124911674</v>
+        <v>6.028495578435638</v>
       </c>
       <c r="C20">
-        <v>3.092773947448791</v>
+        <v>0.8146994745880818</v>
       </c>
       <c r="D20">
-        <v>0.28701842231348</v>
+        <v>0.2996464095816549</v>
       </c>
       <c r="E20">
-        <v>0.0266038263274293</v>
+        <v>0.02263432779755448</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007287454182161782</v>
+        <v>0.0007712238143422597</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.32172430575943</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01266817621684613</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.456454692877131</v>
       </c>
       <c r="L20">
-        <v>0.3745637357604608</v>
+        <v>0.5013275002147566</v>
       </c>
       <c r="M20">
-        <v>1.267245600004642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1.777189900873623</v>
+      </c>
+      <c r="O20">
+        <v>3.223540469034475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.905858207969629</v>
+        <v>6.87876171983936</v>
       </c>
       <c r="C21">
-        <v>3.607053726945992</v>
+        <v>0.9350644793616993</v>
       </c>
       <c r="D21">
-        <v>0.3326057247837753</v>
+        <v>0.3437414847834361</v>
       </c>
       <c r="E21">
-        <v>0.02929800884484912</v>
+        <v>0.0236025954725374</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000705211375277544</v>
+        <v>0.0007576154517386427</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.43967519694701</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01468809543462779</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.666549831143172</v>
       </c>
       <c r="L21">
-        <v>0.4325621179964827</v>
+        <v>0.5697441891984596</v>
       </c>
       <c r="M21">
-        <v>1.482343820167245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1.816002067859273</v>
+      </c>
+      <c r="O21">
+        <v>3.594952392014449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.451710863260871</v>
+        <v>7.454534042449552</v>
       </c>
       <c r="C22">
-        <v>3.969720202697204</v>
+        <v>1.016493544237932</v>
       </c>
       <c r="D22">
-        <v>0.3646693809390626</v>
+        <v>0.3735875418930732</v>
       </c>
       <c r="E22">
-        <v>0.03119647585497454</v>
+        <v>0.02427806238209662</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006892453780062979</v>
+        <v>0.0007487156343407175</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.91899496930523</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01615774265274172</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.808774019800907</v>
       </c>
       <c r="L22">
-        <v>0.473261822289345</v>
+        <v>0.6161351527341878</v>
       </c>
       <c r="M22">
-        <v>1.635179743884933</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1.846159008033453</v>
+      </c>
+      <c r="O22">
+        <v>3.850075875309471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.155017519692706</v>
+        <v>7.145189683464366</v>
       </c>
       <c r="C23">
-        <v>3.773279017151822</v>
+        <v>0.9727492086874179</v>
       </c>
       <c r="D23">
-        <v>0.3473113891570421</v>
+        <v>0.3575532075456351</v>
       </c>
       <c r="E23">
-        <v>0.03016833501529348</v>
+        <v>0.02391334417002255</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006978343257306221</v>
+        <v>0.0007534682334440967</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.11916544377681</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0153568302731184</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.732364843942634</v>
       </c>
       <c r="L23">
-        <v>0.4512381884214847</v>
+        <v>0.591205200454155</v>
       </c>
       <c r="M23">
-        <v>1.552281660032577</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1.829584475714427</v>
+      </c>
+      <c r="O23">
+        <v>3.712658160372939</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.134477203291681</v>
+        <v>6.014894212801039</v>
       </c>
       <c r="C24">
-        <v>3.08472956038247</v>
+        <v>0.8127723378111682</v>
       </c>
       <c r="D24">
-        <v>0.2863043894392518</v>
+        <v>0.2989407671520752</v>
       </c>
       <c r="E24">
-        <v>0.02656167091685546</v>
+        <v>0.02261915794567493</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007291229162034674</v>
+        <v>0.0007714465629765173</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.28840484124609</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01263713932593902</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.453093004503131</v>
       </c>
       <c r="L24">
-        <v>0.3736540695108772</v>
+        <v>0.5002340695544945</v>
       </c>
       <c r="M24">
-        <v>1.263897119205467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.77662792703471</v>
+      </c>
+      <c r="O24">
+        <v>3.217653968224965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.181604199630044</v>
+        <v>4.86374846263692</v>
       </c>
       <c r="C25">
-        <v>2.421680472925516</v>
+        <v>0.6493548992275748</v>
       </c>
       <c r="D25">
-        <v>0.2273761147401956</v>
+        <v>0.2391714213422063</v>
       </c>
       <c r="E25">
-        <v>0.0230871173678544</v>
+        <v>0.02137927304061815</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007614367737899501</v>
+        <v>0.0007909936303657396</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.52116485664772</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01013206271832257</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.168429607983782</v>
       </c>
       <c r="L25">
-        <v>0.2984473371999385</v>
+        <v>0.4078317539146212</v>
       </c>
       <c r="M25">
-        <v>0.9897772750398843</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.736509639731153</v>
+      </c>
+      <c r="O25">
+        <v>2.726359395649183</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.058045044231392</v>
+        <v>1.259722522457281</v>
       </c>
       <c r="C2">
-        <v>0.5344141212619036</v>
+        <v>0.3574449722022166</v>
       </c>
       <c r="D2">
-        <v>0.1972535858658233</v>
+        <v>0.2005045873177096</v>
       </c>
       <c r="E2">
-        <v>0.02057563152446384</v>
+        <v>1.390676485368985</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008056860613534361</v>
+        <v>0.9814319403082266</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6093968644065342</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5374189476568532</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9689384276000652</v>
+        <v>1.589943584518835</v>
       </c>
       <c r="L2">
-        <v>0.3433619548115843</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.718360540114588</v>
+        <v>0.836282834755508</v>
       </c>
       <c r="O2">
-        <v>2.391674723717841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.53138821159024</v>
+        <v>1.08874991080333</v>
       </c>
       <c r="C3">
-        <v>0.4588781667072794</v>
+        <v>0.3079407190220138</v>
       </c>
       <c r="D3">
-        <v>0.1697921263234434</v>
+        <v>0.1734453063164807</v>
       </c>
       <c r="E3">
-        <v>0.0200889464611107</v>
+        <v>1.191716973993223</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000815898624492679</v>
+        <v>0.8955717309365951</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5775821309417921</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5098502169051997</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8383655812896791</v>
+        <v>1.372985480951428</v>
       </c>
       <c r="L3">
-        <v>0.3013424588125275</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.711861422544942</v>
+        <v>0.8725213857546024</v>
       </c>
       <c r="O3">
-        <v>2.177838623922725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.215686966292196</v>
+        <v>0.9848088994570787</v>
       </c>
       <c r="C4">
-        <v>0.4133856400755747</v>
+        <v>0.2779740445113248</v>
       </c>
       <c r="D4">
-        <v>0.1532975256676394</v>
+        <v>0.15705469261475</v>
       </c>
       <c r="E4">
-        <v>0.01981582193486364</v>
+        <v>1.0721831770405</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008223143778757893</v>
+        <v>0.8451532776810211</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5593110553907366</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4941479495334065</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7600047014997102</v>
+        <v>1.241233258668586</v>
       </c>
       <c r="L4">
-        <v>0.2762123146596167</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.710367689557899</v>
+        <v>0.8962505949935959</v>
       </c>
       <c r="O4">
-        <v>2.051857218304079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.088714820980442</v>
+        <v>0.9426717215432063</v>
       </c>
       <c r="C5">
-        <v>0.3950335395660431</v>
+        <v>0.2658534433997488</v>
       </c>
       <c r="D5">
-        <v>0.1466548493296216</v>
+        <v>0.1504242702441019</v>
       </c>
       <c r="E5">
-        <v>0.01971060154550042</v>
+        <v>1.024030606604541</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008249679134199313</v>
+        <v>0.8251333066291835</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.552159361500145</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4880338282623953</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7284655066052821</v>
+        <v>1.187852855369044</v>
       </c>
       <c r="L5">
-        <v>0.2661195600392432</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.710338408256959</v>
+        <v>0.9062750955362375</v>
       </c>
       <c r="O5">
-        <v>2.001711116321459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.067725742567404</v>
+        <v>0.9356869988413905</v>
       </c>
       <c r="C6">
-        <v>0.3919964509260012</v>
+        <v>0.2638458603771028</v>
       </c>
       <c r="D6">
-        <v>0.145556246843455</v>
+        <v>0.1493260395223928</v>
       </c>
       <c r="E6">
-        <v>0.01969348648010172</v>
+        <v>1.016065822104636</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008254109606488303</v>
+        <v>0.8218393164471962</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5509889204537899</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4870351275015921</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7232505159417357</v>
+        <v>1.179006184963669</v>
       </c>
       <c r="L6">
-        <v>0.264452041578636</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.710367216906334</v>
+        <v>0.9079606001975833</v>
       </c>
       <c r="O6">
-        <v>1.99345246068782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.213968090865706</v>
+        <v>0.9842397854911269</v>
       </c>
       <c r="C7">
-        <v>0.4131374278294686</v>
+        <v>0.2778102344022955</v>
       </c>
       <c r="D7">
-        <v>0.15320763688608</v>
+        <v>0.1569650838978163</v>
       </c>
       <c r="E7">
-        <v>0.01981437875795677</v>
+        <v>1.071531642051312</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008223500029773903</v>
+        <v>0.8448812180924534</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5592134451349153</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4940643692847431</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7595778371456845</v>
+        <v>1.24051217085713</v>
       </c>
       <c r="L7">
-        <v>0.2760756267217204</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.710365009080405</v>
+        <v>0.8963843746198989</v>
       </c>
       <c r="O7">
-        <v>2.051176282941199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.874703987340922</v>
+        <v>1.200530160830198</v>
       </c>
       <c r="C8">
-        <v>0.5081620500425856</v>
+        <v>0.3402762378346154</v>
       </c>
       <c r="D8">
-        <v>0.1877003439958145</v>
+        <v>0.19112343840861</v>
       </c>
       <c r="E8">
-        <v>0.02040224577508454</v>
+        <v>1.321464944592478</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008091788314510169</v>
+        <v>0.9513170894031759</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5981500513039748</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5276443461367677</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9235016383519223</v>
+        <v>1.514796988659668</v>
       </c>
       <c r="L8">
-        <v>0.3287215890114936</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.715570749490951</v>
+        <v>0.8484602637311482</v>
       </c>
       <c r="O8">
-        <v>2.316749560349677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.2440085954143</v>
+        <v>1.634953970333811</v>
       </c>
       <c r="C9">
-        <v>0.7034178987690893</v>
+        <v>0.4670214632845671</v>
       </c>
       <c r="D9">
-        <v>0.2589272925026194</v>
+        <v>0.2602512693123771</v>
       </c>
       <c r="E9">
-        <v>0.02177844820047525</v>
+        <v>1.837643504252469</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007843726268629654</v>
+        <v>1.180891142091269</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6857078642628096</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6043729744663864</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.262500269432479</v>
+        <v>2.067142492126436</v>
       </c>
       <c r="L9">
-        <v>0.4383221169143496</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.748060610743295</v>
+        <v>0.7670589556651279</v>
       </c>
       <c r="O9">
-        <v>2.887073208839794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.315429862560563</v>
+        <v>1.963586475133326</v>
       </c>
       <c r="C10">
-        <v>0.8553399538067765</v>
+        <v>0.5640551768003945</v>
       </c>
       <c r="D10">
-        <v>0.3145303985911454</v>
+        <v>0.3129116899694395</v>
       </c>
       <c r="E10">
-        <v>0.02295680835387337</v>
+        <v>2.241076736898506</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007665636228895488</v>
+        <v>1.366312726808786</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7586964129429816</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.669170347509727</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.527365638793739</v>
+        <v>2.486269319413793</v>
       </c>
       <c r="L10">
-        <v>0.5244022610383325</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.789488518790733</v>
+        <v>0.7162252348031188</v>
       </c>
       <c r="O10">
-        <v>3.348134315639754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.822561263017576</v>
+        <v>2.115958771418263</v>
       </c>
       <c r="C11">
-        <v>0.927113816857883</v>
+        <v>0.6093898504644244</v>
       </c>
       <c r="D11">
-        <v>0.3408277688974977</v>
+        <v>0.3374171434632132</v>
       </c>
       <c r="E11">
-        <v>0.0235374645929376</v>
+        <v>2.432071371133048</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007584969516013463</v>
+        <v>1.455336383843189</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.794248862315186</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.7009349045403042</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.652665894541002</v>
+        <v>2.6809830485752</v>
       </c>
       <c r="L11">
-        <v>0.5652184847663051</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.813220793427291</v>
+        <v>0.6953809714396613</v>
       </c>
       <c r="O11">
-        <v>3.570201739966365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.017988920118682</v>
+        <v>2.174148967012115</v>
       </c>
       <c r="C12">
-        <v>0.9547586664624248</v>
+        <v>0.6267614282869829</v>
       </c>
       <c r="D12">
-        <v>0.3509593182698296</v>
+        <v>0.3467891661094455</v>
       </c>
       <c r="E12">
-        <v>0.02376458081296207</v>
+        <v>2.505689106590168</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007554418090956691</v>
+        <v>1.48981832055108</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8080942745894788</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.713336003675046</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.700943587952921</v>
+        <v>2.755408152807945</v>
       </c>
       <c r="L12">
-        <v>0.580957824890362</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.82301857518155</v>
+        <v>0.687847803974158</v>
       </c>
       <c r="O12">
-        <v>3.65638596831846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.975739634107015</v>
+        <v>2.161593545749781</v>
       </c>
       <c r="C13">
-        <v>0.9487826719752093</v>
+        <v>0.6230104926736999</v>
       </c>
       <c r="D13">
-        <v>0.3487690847830009</v>
+        <v>0.3447663988795711</v>
       </c>
       <c r="E13">
-        <v>0.02371533105799273</v>
+        <v>2.489772896932209</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00075609990640646</v>
+        <v>1.482356042234557</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.805094635189846</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.7106478830769092</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.690506804853072</v>
+        <v>2.739346749383628</v>
       </c>
       <c r="L13">
-        <v>0.5775546919672507</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.820870458925015</v>
+        <v>0.6894536341332227</v>
       </c>
       <c r="O13">
-        <v>3.637725932736856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.838567831397256</v>
+        <v>2.120735818072689</v>
       </c>
       <c r="C14">
-        <v>0.9293783181896629</v>
+        <v>0.610814722672842</v>
       </c>
       <c r="D14">
-        <v>0.3416576404554377</v>
+        <v>0.3381862533686188</v>
       </c>
       <c r="E14">
-        <v>0.02355599943265041</v>
+        <v>2.438100677497033</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007582456471060262</v>
+        <v>1.458157180548369</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7953799915972013</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.7019474148714835</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.656620240973254</v>
+        <v>2.687091520335542</v>
       </c>
       <c r="L14">
-        <v>0.5665074128355343</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.814009925135963</v>
+        <v>0.6947537972517424</v>
       </c>
       <c r="O14">
-        <v>3.577248215812574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.755005257487255</v>
+        <v>2.095775544478386</v>
       </c>
       <c r="C15">
-        <v>0.9175559290688398</v>
+        <v>0.6033721154505827</v>
       </c>
       <c r="D15">
-        <v>0.337325189809718</v>
+        <v>0.3341681691183851</v>
       </c>
       <c r="E15">
-        <v>0.02345937287522304</v>
+        <v>2.406625287289728</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007595597366496669</v>
+        <v>1.443438170702393</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.789480721525905</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.6966680299579409</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.635976200639931</v>
+        <v>2.6551771689345</v>
       </c>
       <c r="L15">
-        <v>0.5597789596760094</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.809916778738909</v>
+        <v>0.6980482210562968</v>
       </c>
       <c r="O15">
-        <v>3.540486723011128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.282729747773999</v>
+        <v>1.953692787333921</v>
       </c>
       <c r="C16">
-        <v>0.8507097077653327</v>
+        <v>0.5611191629698737</v>
       </c>
       <c r="D16">
-        <v>0.3128343665457294</v>
+        <v>0.3113223665407503</v>
       </c>
       <c r="E16">
-        <v>0.02291982594639386</v>
+        <v>2.228762990040295</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007670910506612069</v>
+        <v>1.360597018238735</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7564239431703186</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.6671440988280324</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.519285018145112</v>
+        <v>2.473634817196171</v>
       </c>
       <c r="L16">
-        <v>0.521771845159634</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.788044728962888</v>
+        <v>0.717636003923829</v>
       </c>
       <c r="O16">
-        <v>3.333895865765029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.998422657247431</v>
+        <v>1.867317745500429</v>
       </c>
       <c r="C17">
-        <v>0.8104384433140694</v>
+        <v>0.535525969964425</v>
       </c>
       <c r="D17">
-        <v>0.2980862047861876</v>
+        <v>0.2974570314406861</v>
       </c>
       <c r="E17">
-        <v>0.02260080144381327</v>
+        <v>2.121708459496858</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007717165465244453</v>
+        <v>1.31104013194161</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7367764872861642</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.6496474444226692</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.449021881354085</v>
+        <v>2.363375128689455</v>
       </c>
       <c r="L17">
-        <v>0.4989099467033355</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.775949949174418</v>
+        <v>0.7302581916990718</v>
       </c>
       <c r="O17">
-        <v>3.210527688368941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.836716674182924</v>
+        <v>1.817902676532441</v>
       </c>
       <c r="C18">
-        <v>0.7875205077882299</v>
+        <v>0.5209155903647797</v>
       </c>
       <c r="D18">
-        <v>0.2896958890262482</v>
+        <v>0.2895329453687054</v>
       </c>
       <c r="E18">
-        <v>0.02242145037262233</v>
+        <v>2.060821854505079</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007743806529491622</v>
+        <v>1.282969731526975</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7256939679640766</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.6397962766890473</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.409051846414854</v>
+        <v>2.300330691369936</v>
       </c>
       <c r="L18">
-        <v>0.4859133750716467</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.769445848431857</v>
+        <v>0.7377306209592405</v>
       </c>
       <c r="O18">
-        <v>3.140708041424062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.782263064189692</v>
+        <v>1.80121501270628</v>
       </c>
       <c r="C19">
-        <v>0.7798006796309664</v>
+        <v>0.5159867580745185</v>
       </c>
       <c r="D19">
-        <v>0.2868701390365231</v>
+        <v>0.2868583463288275</v>
       </c>
       <c r="E19">
-        <v>0.02236141390847735</v>
+        <v>2.040318812436595</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007752834517543851</v>
+        <v>1.273537212934173</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7219778197003848</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.6364960871977985</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.395591022726123</v>
+        <v>2.279046072400689</v>
       </c>
       <c r="L19">
-        <v>0.4815379878850479</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.767318379208945</v>
+        <v>0.7402962332171299</v>
       </c>
       <c r="O19">
-        <v>3.117254953593317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.028495578435638</v>
+        <v>1.876484505741587</v>
       </c>
       <c r="C20">
-        <v>0.8146994745880818</v>
+        <v>0.5382387860602762</v>
       </c>
       <c r="D20">
-        <v>0.2996464095816549</v>
+        <v>0.2989276620881469</v>
       </c>
       <c r="E20">
-        <v>0.02263432779755448</v>
+        <v>2.133031885233365</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007712238143422597</v>
+        <v>1.316270016884204</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7388451065179424</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.651487707443728</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.456454692877131</v>
+        <v>2.37507300695583</v>
       </c>
       <c r="L20">
-        <v>0.5013275002147566</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.777189900873623</v>
+        <v>0.7288923266293992</v>
       </c>
       <c r="O20">
-        <v>3.223540469034475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.87876171983936</v>
+        <v>2.13272276312469</v>
       </c>
       <c r="C21">
-        <v>0.9350644793616993</v>
+        <v>0.6143910881648367</v>
       </c>
       <c r="D21">
-        <v>0.3437414847834361</v>
+        <v>0.3401163822454834</v>
       </c>
       <c r="E21">
-        <v>0.0236025954725374</v>
+        <v>2.45324108244823</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007576154517386427</v>
+        <v>1.465243211471346</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7982226539126316</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.7044924679098159</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.666549831143172</v>
+        <v>2.70242045136888</v>
       </c>
       <c r="L21">
-        <v>0.5697441891984596</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.816002067859273</v>
+        <v>0.6931869608958081</v>
       </c>
       <c r="O21">
-        <v>3.594952392014449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.454534042449552</v>
+        <v>2.303088846056482</v>
       </c>
       <c r="C22">
-        <v>1.016493544237932</v>
+        <v>0.6653704742859645</v>
       </c>
       <c r="D22">
-        <v>0.3735875418930732</v>
+        <v>0.3675811230433368</v>
       </c>
       <c r="E22">
-        <v>0.02427806238209662</v>
+        <v>2.670175639862407</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007487156343407175</v>
+        <v>1.567152693410662</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8392836424805523</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.7413300062079387</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.808774019800907</v>
+        <v>2.920451035176228</v>
       </c>
       <c r="L22">
-        <v>0.6161351527341878</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.846159008033453</v>
+        <v>0.6719683983732452</v>
       </c>
       <c r="O22">
-        <v>3.850075875309471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.145189683464366</v>
+        <v>2.21186804348622</v>
       </c>
       <c r="C23">
-        <v>0.9727492086874179</v>
+        <v>0.6380391537774699</v>
       </c>
       <c r="D23">
-        <v>0.3575532075456351</v>
+        <v>0.3528679639825896</v>
       </c>
       <c r="E23">
-        <v>0.02391334417002255</v>
+        <v>2.55361140558341</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007534682334440967</v>
+        <v>1.512309721218145</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.817146074858357</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.721452324996612</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.732364843942634</v>
+        <v>2.803670056903172</v>
       </c>
       <c r="L23">
-        <v>0.591205200454155</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.829584475714427</v>
+        <v>0.6830877069133763</v>
       </c>
       <c r="O23">
-        <v>3.712658160372939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.014894212801039</v>
+        <v>1.872339461918784</v>
       </c>
       <c r="C24">
-        <v>0.8127723378111682</v>
+        <v>0.5370120019737783</v>
       </c>
       <c r="D24">
-        <v>0.2989407671520752</v>
+        <v>0.2982626436882754</v>
       </c>
       <c r="E24">
-        <v>0.02261915794567493</v>
+        <v>2.127910523236721</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007714465629765173</v>
+        <v>1.313904283373915</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7379092234133111</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.6506550802172768</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.453093004503131</v>
+        <v>2.369783328612527</v>
       </c>
       <c r="L24">
-        <v>0.5002340695544945</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.77662792703471</v>
+        <v>0.7295091645518355</v>
       </c>
       <c r="O24">
-        <v>3.217653968224965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.86374846263692</v>
+        <v>1.516020906149066</v>
       </c>
       <c r="C25">
-        <v>0.6493548992275748</v>
+        <v>0.4321510556668784</v>
       </c>
       <c r="D25">
-        <v>0.2391714213422063</v>
+        <v>0.2412658490737414</v>
       </c>
       <c r="E25">
-        <v>0.02137927304061815</v>
+        <v>1.694421989349607</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007909936303657396</v>
+        <v>1.116161917601104</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6606447588894184</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5822776475909635</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.168429607983782</v>
+        <v>1.91573414226508</v>
       </c>
       <c r="L25">
-        <v>0.4078317539146212</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.736509639731153</v>
+        <v>0.7876075744300337</v>
       </c>
       <c r="O25">
-        <v>2.726359395649183</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.259722522457281</v>
+        <v>0.4627908493242501</v>
       </c>
       <c r="C2">
-        <v>0.3574449722022166</v>
+        <v>0.1134005571835246</v>
       </c>
       <c r="D2">
-        <v>0.2005045873177096</v>
+        <v>0.07843944507473566</v>
       </c>
       <c r="E2">
-        <v>1.390676485368985</v>
+        <v>0.41152745995565</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9814319403082266</v>
+        <v>0.9516726143155552</v>
       </c>
       <c r="H2">
-        <v>0.6093968644065342</v>
+        <v>0.9464481696558238</v>
       </c>
       <c r="I2">
-        <v>0.5374189476568532</v>
+        <v>0.7481229575361183</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.589943584518835</v>
+        <v>0.5578637603159393</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.836282834755508</v>
+        <v>1.605780702952011</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.08874991080333</v>
+        <v>0.4164782384311252</v>
       </c>
       <c r="C3">
-        <v>0.3079407190220138</v>
+        <v>0.100008059534531</v>
       </c>
       <c r="D3">
-        <v>0.1734453063164807</v>
+        <v>0.07115579397002136</v>
       </c>
       <c r="E3">
-        <v>1.191716973993223</v>
+        <v>0.3589963012006763</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8955717309365951</v>
+        <v>0.9357387779456019</v>
       </c>
       <c r="H3">
-        <v>0.5775821309417921</v>
+        <v>0.9442726043521219</v>
       </c>
       <c r="I3">
-        <v>0.5098502169051997</v>
+        <v>0.7457616126376934</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.372985480951428</v>
+        <v>0.4991180516498446</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8725213857546024</v>
+        <v>1.620824802326169</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9848088994570787</v>
+        <v>0.3882077155305126</v>
       </c>
       <c r="C4">
-        <v>0.2779740445113248</v>
+        <v>0.09181565796373548</v>
       </c>
       <c r="D4">
-        <v>0.15705469261475</v>
+        <v>0.06672095575694925</v>
       </c>
       <c r="E4">
-        <v>1.0721831770405</v>
+        <v>0.3268459619217765</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8451532776810211</v>
+        <v>0.9266061884878667</v>
       </c>
       <c r="H4">
-        <v>0.5593110553907366</v>
+        <v>0.9434249534876358</v>
       </c>
       <c r="I4">
-        <v>0.4941479495334065</v>
+        <v>0.7447370193433471</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.241233258668586</v>
+        <v>0.4632373810664774</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8962505949935959</v>
+        <v>1.630640492642875</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9426717215432063</v>
+        <v>0.3767287265012271</v>
       </c>
       <c r="C5">
-        <v>0.2658534433997488</v>
+        <v>0.08848466053643733</v>
       </c>
       <c r="D5">
-        <v>0.1504242702441019</v>
+        <v>0.06492304570784313</v>
       </c>
       <c r="E5">
-        <v>1.024030606604541</v>
+        <v>0.3137685166095849</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8251333066291835</v>
+        <v>0.9230474580757146</v>
       </c>
       <c r="H5">
-        <v>0.552159361500145</v>
+        <v>0.9432020387869926</v>
       </c>
       <c r="I5">
-        <v>0.4880338282623953</v>
+        <v>0.7444261187025702</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.187852855369044</v>
+        <v>0.4486629244394749</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9062750955362375</v>
+        <v>1.634785652224053</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9356869988413905</v>
+        <v>0.3748251497044919</v>
       </c>
       <c r="C6">
-        <v>0.2638458603771028</v>
+        <v>0.08793199551664088</v>
       </c>
       <c r="D6">
-        <v>0.1493260395223928</v>
+        <v>0.064625065143602</v>
       </c>
       <c r="E6">
-        <v>1.016065822104636</v>
+        <v>0.3115984107982968</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8218393164471962</v>
+        <v>0.9224663478849067</v>
       </c>
       <c r="H6">
-        <v>0.5509889204537899</v>
+        <v>0.9431724163097357</v>
       </c>
       <c r="I6">
-        <v>0.4870351275015921</v>
+        <v>0.7443809250063893</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.179006184963669</v>
+        <v>0.4462456860477744</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9079606001975833</v>
+        <v>1.63548271311231</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9842397854911269</v>
+        <v>0.3880527381378442</v>
       </c>
       <c r="C7">
-        <v>0.2778102344022955</v>
+        <v>0.09177070501837647</v>
       </c>
       <c r="D7">
-        <v>0.1569650838978163</v>
+        <v>0.0666966708585619</v>
       </c>
       <c r="E7">
-        <v>1.071531642051312</v>
+        <v>0.3266695001385642</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8448812180924534</v>
+        <v>0.926557535781825</v>
       </c>
       <c r="H7">
-        <v>0.5592134451349153</v>
+        <v>0.9434214514703427</v>
       </c>
       <c r="I7">
-        <v>0.4940643692847431</v>
+        <v>0.7447323951074836</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.24051217085713</v>
+        <v>0.4630406342605227</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8963843746198989</v>
+        <v>1.630695808266161</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.200530160830198</v>
+        <v>0.4467877734882109</v>
       </c>
       <c r="C8">
-        <v>0.3402762378346154</v>
+        <v>0.1087763182613912</v>
       </c>
       <c r="D8">
-        <v>0.19112343840861</v>
+        <v>0.07592024481077431</v>
       </c>
       <c r="E8">
-        <v>1.321464944592478</v>
+        <v>0.3933918631780955</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.9513170894031759</v>
+        <v>0.9460430603804468</v>
       </c>
       <c r="H8">
-        <v>0.5981500513039748</v>
+        <v>0.9455965692559829</v>
       </c>
       <c r="I8">
-        <v>0.5276443461367677</v>
+        <v>0.747220307773226</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.514796988659668</v>
+        <v>0.5375686460493512</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8484602637311482</v>
+        <v>1.610847652416552</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.634953970333811</v>
+        <v>0.5632948942680684</v>
       </c>
       <c r="C9">
-        <v>0.4670214632845671</v>
+        <v>0.1423796837788416</v>
       </c>
       <c r="D9">
-        <v>0.2602512693123771</v>
+        <v>0.09430818116064188</v>
       </c>
       <c r="E9">
-        <v>1.837643504252469</v>
+        <v>0.5251593183205188</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.180891142091269</v>
+        <v>0.9894572401785808</v>
       </c>
       <c r="H9">
-        <v>0.6857078642628096</v>
+        <v>0.953747636528135</v>
       </c>
       <c r="I9">
-        <v>0.6043729744663864</v>
+        <v>0.7554888540765319</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.067142492126436</v>
+        <v>0.6852481169212012</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7670589556651279</v>
+        <v>1.576528957162708</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.963586475133326</v>
+        <v>0.6497307048636003</v>
       </c>
       <c r="C10">
-        <v>0.5640551768003945</v>
+        <v>0.167243209556176</v>
       </c>
       <c r="D10">
-        <v>0.3129116899694395</v>
+        <v>0.1080081951953105</v>
       </c>
       <c r="E10">
-        <v>2.241076736898506</v>
+        <v>0.6226802770422921</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.366312726808786</v>
+        <v>1.024584378090708</v>
       </c>
       <c r="H10">
-        <v>0.7586964129429816</v>
+        <v>0.9621243742509193</v>
       </c>
       <c r="I10">
-        <v>0.669170347509727</v>
+        <v>0.763653352927534</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.486269319413793</v>
+        <v>0.7947303019773244</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7162252348031188</v>
+        <v>1.554138721778259</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.115958771418263</v>
+        <v>0.689241366420049</v>
       </c>
       <c r="C11">
-        <v>0.6093898504644244</v>
+        <v>0.178596672271766</v>
       </c>
       <c r="D11">
-        <v>0.3374171434632132</v>
+        <v>0.1142836718732241</v>
       </c>
       <c r="E11">
-        <v>2.432071371133048</v>
+        <v>0.6672322013651524</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.455336383843189</v>
+        <v>1.041279229859441</v>
       </c>
       <c r="H11">
-        <v>0.794248862315186</v>
+        <v>0.9664581177512446</v>
       </c>
       <c r="I11">
-        <v>0.7009349045403042</v>
+        <v>0.7678264921839428</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.6809830485752</v>
+        <v>0.8447612546671621</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6953809714396613</v>
+        <v>1.544569764849548</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.174148967012115</v>
+        <v>0.7042307926226385</v>
       </c>
       <c r="C12">
-        <v>0.6267614282869829</v>
+        <v>0.1829024107094028</v>
       </c>
       <c r="D12">
-        <v>0.3467891661094455</v>
+        <v>0.1166663569413515</v>
       </c>
       <c r="E12">
-        <v>2.505689106590168</v>
+        <v>0.6841325527182818</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.48981832055108</v>
+        <v>1.047704980494188</v>
       </c>
       <c r="H12">
-        <v>0.8080942745894788</v>
+        <v>0.9681747447642692</v>
       </c>
       <c r="I12">
-        <v>0.713336003675046</v>
+        <v>0.7694731578590535</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.755408152807945</v>
+        <v>0.8637400029217019</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.687847803974158</v>
+        <v>1.541035245077964</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.161593545749781</v>
+        <v>0.7010013210150419</v>
       </c>
       <c r="C13">
-        <v>0.6230104926736999</v>
+        <v>0.1819748028632091</v>
       </c>
       <c r="D13">
-        <v>0.3447663988795711</v>
+        <v>0.1161529217471013</v>
       </c>
       <c r="E13">
-        <v>2.489772896932209</v>
+        <v>0.6804914104346693</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.482356042234557</v>
+        <v>1.046316450251425</v>
       </c>
       <c r="H13">
-        <v>0.805094635189846</v>
+        <v>0.9678016741358704</v>
       </c>
       <c r="I13">
-        <v>0.7106478830769092</v>
+        <v>0.769115560277406</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.739346749383628</v>
+        <v>0.8596511095330186</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6894536341332227</v>
+        <v>1.541792500973699</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.120735818072689</v>
+        <v>0.6904740013417552</v>
       </c>
       <c r="C14">
-        <v>0.610814722672842</v>
+        <v>0.1789507776440757</v>
       </c>
       <c r="D14">
-        <v>0.3381862533686188</v>
+        <v>0.1144795701434447</v>
       </c>
       <c r="E14">
-        <v>2.438100677497033</v>
+        <v>0.6686219988179971</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.458157180548369</v>
+        <v>1.041805795241231</v>
       </c>
       <c r="H14">
-        <v>0.7953799915972013</v>
+        <v>0.966597830124897</v>
       </c>
       <c r="I14">
-        <v>0.7019474148714835</v>
+        <v>0.7679606316731551</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.687091520335542</v>
+        <v>0.8463219813214948</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6947537972517424</v>
+        <v>1.544277191110538</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.095775544478386</v>
+        <v>0.6840293137224194</v>
       </c>
       <c r="C15">
-        <v>0.6033721154505827</v>
+        <v>0.1770993197407051</v>
       </c>
       <c r="D15">
-        <v>0.3341681691183851</v>
+        <v>0.1134554164548689</v>
       </c>
       <c r="E15">
-        <v>2.406625287289728</v>
+        <v>0.661355552756703</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.443438170702393</v>
+        <v>1.039056430160514</v>
       </c>
       <c r="H15">
-        <v>0.789480721525905</v>
+        <v>0.9658702866840656</v>
       </c>
       <c r="I15">
-        <v>0.6966680299579409</v>
+        <v>0.7672618614942337</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.6551771689345</v>
+        <v>0.8381618319402548</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6980482210562968</v>
+        <v>1.545810742378066</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.953692787333921</v>
+        <v>0.6471524412946792</v>
       </c>
       <c r="C16">
-        <v>0.5611191629698737</v>
+        <v>0.1665021195885288</v>
       </c>
       <c r="D16">
-        <v>0.3113223665407503</v>
+        <v>0.1075989552324756</v>
       </c>
       <c r="E16">
-        <v>2.228762990040295</v>
+        <v>0.6197727065653709</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.360597018238735</v>
+        <v>1.023507802097811</v>
       </c>
       <c r="H16">
-        <v>0.7564239431703186</v>
+        <v>0.9618517066989511</v>
       </c>
       <c r="I16">
-        <v>0.6671440988280324</v>
+        <v>0.7633898980317184</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.473634817196171</v>
+        <v>0.7914652689639752</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.717636003923829</v>
+        <v>1.554776513703104</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.867317745500429</v>
+        <v>0.6245786196502934</v>
       </c>
       <c r="C17">
-        <v>0.535525969964425</v>
+        <v>0.160012254913255</v>
       </c>
       <c r="D17">
-        <v>0.2974570314406861</v>
+        <v>0.1040173425235906</v>
       </c>
       <c r="E17">
-        <v>2.121708459496858</v>
+        <v>0.5943130540709234</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.31104013194161</v>
+        <v>1.014153080884171</v>
       </c>
       <c r="H17">
-        <v>0.7367764872861642</v>
+        <v>0.9595206398803668</v>
       </c>
       <c r="I17">
-        <v>0.6496474444226692</v>
+        <v>0.7611324174905576</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.363375128689455</v>
+        <v>0.7628769045652746</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7302581916990718</v>
+        <v>1.560434892078078</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.817902676532441</v>
+        <v>0.611612680646715</v>
       </c>
       <c r="C18">
-        <v>0.5209155903647797</v>
+        <v>0.156283480687847</v>
       </c>
       <c r="D18">
-        <v>0.2895329453687054</v>
+        <v>0.1019613619572084</v>
       </c>
       <c r="E18">
-        <v>2.060821854505079</v>
+        <v>0.5796869995335499</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.282969731526975</v>
+        <v>1.008839769069368</v>
       </c>
       <c r="H18">
-        <v>0.7256939679640766</v>
+        <v>0.958229092039204</v>
       </c>
       <c r="I18">
-        <v>0.6397962766890473</v>
+        <v>0.7598771613311683</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.300330691369936</v>
+        <v>0.746454966667784</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7377306209592405</v>
+        <v>1.563747443482967</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.80121501270628</v>
+        <v>0.6072257096211899</v>
       </c>
       <c r="C19">
-        <v>0.5159867580745185</v>
+        <v>0.1550216652181291</v>
       </c>
       <c r="D19">
-        <v>0.2868583463288275</v>
+        <v>0.1012659387095738</v>
       </c>
       <c r="E19">
-        <v>2.040318812436595</v>
+        <v>0.574737832883855</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.273537212934173</v>
+        <v>1.00705230027134</v>
       </c>
       <c r="H19">
-        <v>0.7219778197003848</v>
+        <v>0.9578002404364838</v>
       </c>
       <c r="I19">
-        <v>0.6364960871977985</v>
+        <v>0.7594595592048705</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.279046072400689</v>
+        <v>0.7408984303346529</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7402962332171299</v>
+        <v>1.564878966592502</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.876484505741587</v>
+        <v>0.6269797848495671</v>
       </c>
       <c r="C20">
-        <v>0.5382387860602762</v>
+        <v>0.1607026937369938</v>
       </c>
       <c r="D20">
-        <v>0.2989276620881469</v>
+        <v>0.1043981897046962</v>
       </c>
       <c r="E20">
-        <v>2.133031885233365</v>
+        <v>0.5970214327220305</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.316270016884204</v>
+        <v>1.015141937552102</v>
       </c>
       <c r="H20">
-        <v>0.7388451065179424</v>
+        <v>0.9597636896341442</v>
       </c>
       <c r="I20">
-        <v>0.651487707443728</v>
+        <v>0.7613682577786776</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.37507300695583</v>
+        <v>0.7659179734388317</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7288923266293992</v>
+        <v>1.559826542309828</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.13272276312469</v>
+        <v>0.6935653797994519</v>
       </c>
       <c r="C21">
-        <v>0.6143910881648367</v>
+        <v>0.1798388306231971</v>
       </c>
       <c r="D21">
-        <v>0.3401163822454834</v>
+        <v>0.1149709025310557</v>
       </c>
       <c r="E21">
-        <v>2.45324108244823</v>
+        <v>0.6721075134695127</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.465243211471346</v>
+        <v>1.043127860317668</v>
       </c>
       <c r="H21">
-        <v>0.7982226539126316</v>
+        <v>0.966949375883928</v>
       </c>
       <c r="I21">
-        <v>0.7044924679098159</v>
+        <v>0.7682980574254259</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.70242045136888</v>
+        <v>0.8502361668726053</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6931869608958081</v>
+        <v>1.543544957834776</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.303088846056482</v>
+        <v>0.7372438613971326</v>
       </c>
       <c r="C22">
-        <v>0.6653704742859645</v>
+        <v>0.1923829942354587</v>
       </c>
       <c r="D22">
-        <v>0.3675811230433368</v>
+        <v>0.1219175284262519</v>
       </c>
       <c r="E22">
-        <v>2.670175639862407</v>
+        <v>0.7213536737698121</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.567152693410662</v>
+        <v>1.062023572976045</v>
       </c>
       <c r="H22">
-        <v>0.8392836424805523</v>
+        <v>0.9720860446286679</v>
       </c>
       <c r="I22">
-        <v>0.7413300062079387</v>
+        <v>0.7732142219275389</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.920451035176228</v>
+        <v>0.9055362132981486</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6719683983732452</v>
+        <v>1.533423158863677</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.21186804348622</v>
+        <v>0.7139170418475373</v>
       </c>
       <c r="C23">
-        <v>0.6380391537774699</v>
+        <v>0.1856844126381816</v>
       </c>
       <c r="D23">
-        <v>0.3528679639825896</v>
+        <v>0.1182065957978722</v>
       </c>
       <c r="E23">
-        <v>2.55361140558341</v>
+        <v>0.6950534662712045</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.512309721218145</v>
+        <v>1.051882888634964</v>
       </c>
       <c r="H23">
-        <v>0.817146074858357</v>
+        <v>0.9693041074282007</v>
       </c>
       <c r="I23">
-        <v>0.721452324996612</v>
+        <v>0.7705548239716151</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.803670056903172</v>
+        <v>0.876003696719124</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6830877069133763</v>
+        <v>1.538777720616764</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.872339461918784</v>
+        <v>0.6258941805396887</v>
       </c>
       <c r="C24">
-        <v>0.5370120019737783</v>
+        <v>0.1603905390917362</v>
       </c>
       <c r="D24">
-        <v>0.2982626436882754</v>
+        <v>0.1042259989317387</v>
       </c>
       <c r="E24">
-        <v>2.127910523236721</v>
+        <v>0.5957969405463643</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.313904283373915</v>
+        <v>1.014694673542749</v>
       </c>
       <c r="H24">
-        <v>0.7379092234133111</v>
+        <v>0.9596536554321915</v>
       </c>
       <c r="I24">
-        <v>0.6506550802172768</v>
+        <v>0.7612615017164472</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.369783328612527</v>
+        <v>0.7645430629644636</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7295091645518355</v>
+        <v>1.560101392003986</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.516020906149066</v>
+        <v>0.5316315519309853</v>
       </c>
       <c r="C25">
-        <v>0.4321510556668784</v>
+        <v>0.1332597433565752</v>
       </c>
       <c r="D25">
-        <v>0.2412658490737414</v>
+        <v>0.08930084358107138</v>
       </c>
       <c r="E25">
-        <v>1.694421989349607</v>
+        <v>0.489398547564889</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.116161917601104</v>
+        <v>0.9771494820024458</v>
       </c>
       <c r="H25">
-        <v>0.6606447588894184</v>
+        <v>0.9511245888112967</v>
       </c>
       <c r="I25">
-        <v>0.5822776475909635</v>
+        <v>0.7528867236163492</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.91573414226508</v>
+        <v>0.6451280359810028</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7876075744300337</v>
+        <v>1.5853184725703</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4627908493242501</v>
+        <v>1.259722522457139</v>
       </c>
       <c r="C2">
-        <v>0.1134005571835246</v>
+        <v>0.3574449722021882</v>
       </c>
       <c r="D2">
-        <v>0.07843944507473566</v>
+        <v>0.2005045873178233</v>
       </c>
       <c r="E2">
-        <v>0.41152745995565</v>
+        <v>1.390676485368957</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9516726143155552</v>
+        <v>0.9814319403082123</v>
       </c>
       <c r="H2">
-        <v>0.9464481696558238</v>
+        <v>0.6093968644066337</v>
       </c>
       <c r="I2">
-        <v>0.7481229575361183</v>
+        <v>0.5374189476568603</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5578637603159393</v>
+        <v>1.589943584518807</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.605780702952011</v>
+        <v>0.8362828347555151</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4164782384311252</v>
+        <v>1.088749910803358</v>
       </c>
       <c r="C3">
-        <v>0.100008059534531</v>
+        <v>0.3079407190221275</v>
       </c>
       <c r="D3">
-        <v>0.07115579397002136</v>
+        <v>0.1734453063163528</v>
       </c>
       <c r="E3">
-        <v>0.3589963012006763</v>
+        <v>1.191716973993238</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.9357387779456019</v>
+        <v>0.8955717309366946</v>
       </c>
       <c r="H3">
-        <v>0.9442726043521219</v>
+        <v>0.57758213094192</v>
       </c>
       <c r="I3">
-        <v>0.7457616126376934</v>
+        <v>0.5098502169052068</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4991180516498446</v>
+        <v>1.372985480951399</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.620824802326169</v>
+        <v>0.8725213857545953</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3882077155305126</v>
+        <v>0.9848088994570503</v>
       </c>
       <c r="C4">
-        <v>0.09181565796373548</v>
+        <v>0.2779740445114669</v>
       </c>
       <c r="D4">
-        <v>0.06672095575694925</v>
+        <v>0.1570546926149348</v>
       </c>
       <c r="E4">
-        <v>0.3268459619217765</v>
+        <v>1.0721831770405</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.9266061884878667</v>
+        <v>0.8451532776810353</v>
       </c>
       <c r="H4">
-        <v>0.9434249534876358</v>
+        <v>0.5593110553907366</v>
       </c>
       <c r="I4">
-        <v>0.7447370193433471</v>
+        <v>0.4941479495334136</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4632373810664774</v>
+        <v>1.241233258668672</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.630640492642875</v>
+        <v>0.8962505949936457</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3767287265012271</v>
+        <v>0.9426717215430642</v>
       </c>
       <c r="C5">
-        <v>0.08848466053643733</v>
+        <v>0.2658534433997772</v>
       </c>
       <c r="D5">
-        <v>0.06492304570784313</v>
+        <v>0.1504242702442724</v>
       </c>
       <c r="E5">
-        <v>0.3137685166095849</v>
+        <v>1.024030606604526</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.9230474580757146</v>
+        <v>0.8251333066291551</v>
       </c>
       <c r="H5">
-        <v>0.9432020387869926</v>
+        <v>0.552159361500145</v>
       </c>
       <c r="I5">
-        <v>0.7444261187025702</v>
+        <v>0.4880338282623669</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4486629244394749</v>
+        <v>1.18785285536913</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.634785652224053</v>
+        <v>0.9062750955362162</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3748251497044919</v>
+        <v>0.9356869988414189</v>
       </c>
       <c r="C6">
-        <v>0.08793199551664088</v>
+        <v>0.2638458603773302</v>
       </c>
       <c r="D6">
-        <v>0.064625065143602</v>
+        <v>0.1493260395220375</v>
       </c>
       <c r="E6">
-        <v>0.3115984107982968</v>
+        <v>1.016065822104622</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.9224663478849067</v>
+        <v>0.8218393164472388</v>
       </c>
       <c r="H6">
-        <v>0.9431724163097357</v>
+        <v>0.5509889204537899</v>
       </c>
       <c r="I6">
-        <v>0.7443809250063893</v>
+        <v>0.4870351275016063</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4462456860477744</v>
+        <v>1.179006184963782</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.63548271311231</v>
+        <v>0.9079606001976543</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3880527381378442</v>
+        <v>0.9842397854911553</v>
       </c>
       <c r="C7">
-        <v>0.09177070501837647</v>
+        <v>0.2778102344020397</v>
       </c>
       <c r="D7">
-        <v>0.0666966708585619</v>
+        <v>0.1569650838978163</v>
       </c>
       <c r="E7">
-        <v>0.3266695001385642</v>
+        <v>1.07153164205134</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.926557535781825</v>
+        <v>0.8448812180924676</v>
       </c>
       <c r="H7">
-        <v>0.9434214514703427</v>
+        <v>0.5592134451349295</v>
       </c>
       <c r="I7">
-        <v>0.7447323951074836</v>
+        <v>0.4940643692847502</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4630406342605227</v>
+        <v>1.240512170857073</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.630695808266161</v>
+        <v>0.8963843746199132</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4467877734882109</v>
+        <v>1.200530160830169</v>
       </c>
       <c r="C8">
-        <v>0.1087763182613912</v>
+        <v>0.3402762378346438</v>
       </c>
       <c r="D8">
-        <v>0.07592024481077431</v>
+        <v>0.1911234384087237</v>
       </c>
       <c r="E8">
-        <v>0.3933918631780955</v>
+        <v>1.321464944592492</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.9460430603804468</v>
+        <v>0.9513170894031049</v>
       </c>
       <c r="H8">
-        <v>0.9455965692559829</v>
+        <v>0.598150051303989</v>
       </c>
       <c r="I8">
-        <v>0.747220307773226</v>
+        <v>0.527644346136789</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5375686460493512</v>
+        <v>1.514796988659754</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.610847652416552</v>
+        <v>0.8484602637311625</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5632948942680684</v>
+        <v>1.634953970333811</v>
       </c>
       <c r="C9">
-        <v>0.1423796837788416</v>
+        <v>0.467021463284425</v>
       </c>
       <c r="D9">
-        <v>0.09430818116064188</v>
+        <v>0.2602512693124908</v>
       </c>
       <c r="E9">
-        <v>0.5251593183205188</v>
+        <v>1.837643504252497</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.9894572401785808</v>
+        <v>1.180891142091269</v>
       </c>
       <c r="H9">
-        <v>0.953747636528135</v>
+        <v>0.6857078642628096</v>
       </c>
       <c r="I9">
-        <v>0.7554888540765319</v>
+        <v>0.6043729744664077</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6852481169212012</v>
+        <v>2.067142492126493</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.576528957162708</v>
+        <v>0.7670589556651848</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6497307048636003</v>
+        <v>1.963586475133297</v>
       </c>
       <c r="C10">
-        <v>0.167243209556176</v>
+        <v>0.5640551768005082</v>
       </c>
       <c r="D10">
-        <v>0.1080081951953105</v>
+        <v>0.31291168996934</v>
       </c>
       <c r="E10">
-        <v>0.6226802770422921</v>
+        <v>2.24107673689852</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.024584378090708</v>
+        <v>1.366312726808815</v>
       </c>
       <c r="H10">
-        <v>0.9621243742509193</v>
+        <v>0.7586964129429532</v>
       </c>
       <c r="I10">
-        <v>0.763653352927534</v>
+        <v>0.669170347509727</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7947303019773244</v>
+        <v>2.486269319413793</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.554138721778259</v>
+        <v>0.7162252348030904</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.689241366420049</v>
+        <v>2.115958771418036</v>
       </c>
       <c r="C11">
-        <v>0.178596672271766</v>
+        <v>0.6093898504642823</v>
       </c>
       <c r="D11">
-        <v>0.1142836718732241</v>
+        <v>0.3374171434630284</v>
       </c>
       <c r="E11">
-        <v>0.6672322013651524</v>
+        <v>2.43207137113302</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.041279229859441</v>
+        <v>1.455336383843189</v>
       </c>
       <c r="H11">
-        <v>0.9664581177512446</v>
+        <v>0.794248862315186</v>
       </c>
       <c r="I11">
-        <v>0.7678264921839428</v>
+        <v>0.7009349045403042</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8447612546671621</v>
+        <v>2.680983048575257</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.544569764849548</v>
+        <v>0.695380971439711</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7042307926226385</v>
+        <v>2.174148967012115</v>
       </c>
       <c r="C12">
-        <v>0.1829024107094028</v>
+        <v>0.6267614282869829</v>
       </c>
       <c r="D12">
-        <v>0.1166663569413515</v>
+        <v>0.3467891661095166</v>
       </c>
       <c r="E12">
-        <v>0.6841325527182818</v>
+        <v>2.505689106590197</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.047704980494188</v>
+        <v>1.489818320551194</v>
       </c>
       <c r="H12">
-        <v>0.9681747447642692</v>
+        <v>0.8080942745893651</v>
       </c>
       <c r="I12">
-        <v>0.7694731578590535</v>
+        <v>0.7133360036750389</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8637400029217019</v>
+        <v>2.755408152808087</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.541035245077964</v>
+        <v>0.6878478039741793</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7010013210150419</v>
+        <v>2.161593545749952</v>
       </c>
       <c r="C13">
-        <v>0.1819748028632091</v>
+        <v>0.623010492673842</v>
       </c>
       <c r="D13">
-        <v>0.1161529217471013</v>
+        <v>0.3447663988794858</v>
       </c>
       <c r="E13">
-        <v>0.6804914104346693</v>
+        <v>2.489772896932223</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.046316450251425</v>
+        <v>1.482356042234585</v>
       </c>
       <c r="H13">
-        <v>0.9678016741358704</v>
+        <v>0.8050946351898745</v>
       </c>
       <c r="I13">
-        <v>0.769115560277406</v>
+        <v>0.7106478830769092</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8596511095330186</v>
+        <v>2.739346749383571</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.541792500973699</v>
+        <v>0.6894536341331658</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6904740013417552</v>
+        <v>2.120735818072632</v>
       </c>
       <c r="C14">
-        <v>0.1789507776440757</v>
+        <v>0.610814722672842</v>
       </c>
       <c r="D14">
-        <v>0.1144795701434447</v>
+        <v>0.3381862533685194</v>
       </c>
       <c r="E14">
-        <v>0.6686219988179971</v>
+        <v>2.438100677497061</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.041805795241231</v>
+        <v>1.458157180548369</v>
       </c>
       <c r="H14">
-        <v>0.966597830124897</v>
+        <v>0.7953799915971729</v>
       </c>
       <c r="I14">
-        <v>0.7679606316731551</v>
+        <v>0.7019474148714835</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8463219813214948</v>
+        <v>2.687091520335628</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.544277191110538</v>
+        <v>0.6947537972517424</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6840293137224194</v>
+        <v>2.095775544478414</v>
       </c>
       <c r="C15">
-        <v>0.1770993197407051</v>
+        <v>0.6033721154505258</v>
       </c>
       <c r="D15">
-        <v>0.1134554164548689</v>
+        <v>0.3341681691182572</v>
       </c>
       <c r="E15">
-        <v>0.661355552756703</v>
+        <v>2.406625287289771</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.039056430160514</v>
+        <v>1.443438170702393</v>
       </c>
       <c r="H15">
-        <v>0.9658702866840656</v>
+        <v>0.789480721525905</v>
       </c>
       <c r="I15">
-        <v>0.7672618614942337</v>
+        <v>0.6966680299579338</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8381618319402548</v>
+        <v>2.655177168934557</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.545810742378066</v>
+        <v>0.6980482210562258</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6471524412946792</v>
+        <v>1.953692787333921</v>
       </c>
       <c r="C16">
-        <v>0.1665021195885288</v>
+        <v>0.5611191629700159</v>
       </c>
       <c r="D16">
-        <v>0.1075989552324756</v>
+        <v>0.3113223665407361</v>
       </c>
       <c r="E16">
-        <v>0.6197727065653709</v>
+        <v>2.228762990040295</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.023507802097811</v>
+        <v>1.360597018238792</v>
       </c>
       <c r="H16">
-        <v>0.9618517066989511</v>
+        <v>0.7564239431703186</v>
       </c>
       <c r="I16">
-        <v>0.7633898980317184</v>
+        <v>0.6671440988280395</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7914652689639752</v>
+        <v>2.473634817196171</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.554776513703104</v>
+        <v>0.717636003923829</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6245786196502934</v>
+        <v>1.867317745500372</v>
       </c>
       <c r="C17">
-        <v>0.160012254913255</v>
+        <v>0.5355259699644535</v>
       </c>
       <c r="D17">
-        <v>0.1040173425235906</v>
+        <v>0.297457031440544</v>
       </c>
       <c r="E17">
-        <v>0.5943130540709234</v>
+        <v>2.121708459496872</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.014153080884171</v>
+        <v>1.311040131941581</v>
       </c>
       <c r="H17">
-        <v>0.9595206398803668</v>
+        <v>0.7367764872860505</v>
       </c>
       <c r="I17">
-        <v>0.7611324174905576</v>
+        <v>0.6496474444226834</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7628769045652746</v>
+        <v>2.363375128689484</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.560434892078078</v>
+        <v>0.7302581916990647</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.611612680646715</v>
+        <v>1.817902676532555</v>
       </c>
       <c r="C18">
-        <v>0.156283480687847</v>
+        <v>0.5209155903647513</v>
       </c>
       <c r="D18">
-        <v>0.1019613619572084</v>
+        <v>0.2895329453688475</v>
       </c>
       <c r="E18">
-        <v>0.5796869995335499</v>
+        <v>2.060821854505065</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.008839769069368</v>
+        <v>1.282969731526947</v>
       </c>
       <c r="H18">
-        <v>0.958229092039204</v>
+        <v>0.7256939679640766</v>
       </c>
       <c r="I18">
-        <v>0.7598771613311683</v>
+        <v>0.6397962766890686</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.746454966667784</v>
+        <v>2.300330691369851</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.563747443482967</v>
+        <v>0.7377306209592973</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6072257096211899</v>
+        <v>1.801215012706336</v>
       </c>
       <c r="C19">
-        <v>0.1550216652181291</v>
+        <v>0.5159867580744901</v>
       </c>
       <c r="D19">
-        <v>0.1012659387095738</v>
+        <v>0.2868583463288843</v>
       </c>
       <c r="E19">
-        <v>0.574737832883855</v>
+        <v>2.040318812436581</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.00705230027134</v>
+        <v>1.273537212934201</v>
       </c>
       <c r="H19">
-        <v>0.9578002404364838</v>
+        <v>0.7219778197004985</v>
       </c>
       <c r="I19">
-        <v>0.7594595592048705</v>
+        <v>0.6364960871978127</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7408984303346529</v>
+        <v>2.279046072400632</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.564878966592502</v>
+        <v>0.7402962332171725</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6269797848495671</v>
+        <v>1.876484505741757</v>
       </c>
       <c r="C20">
-        <v>0.1607026937369938</v>
+        <v>0.5382387860599636</v>
       </c>
       <c r="D20">
-        <v>0.1043981897046962</v>
+        <v>0.2989276620881753</v>
       </c>
       <c r="E20">
-        <v>0.5970214327220305</v>
+        <v>2.133031885233351</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.015141937552102</v>
+        <v>1.316270016884147</v>
       </c>
       <c r="H20">
-        <v>0.9597636896341442</v>
+        <v>0.738845106517914</v>
       </c>
       <c r="I20">
-        <v>0.7613682577786776</v>
+        <v>0.6514877074437351</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7659179734388317</v>
+        <v>2.37507300695583</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.559826542309828</v>
+        <v>0.7288923266293992</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6935653797994519</v>
+        <v>2.132722763124917</v>
       </c>
       <c r="C21">
-        <v>0.1798388306231971</v>
+        <v>0.6143910881649788</v>
       </c>
       <c r="D21">
-        <v>0.1149709025310557</v>
+        <v>0.3401163822454834</v>
       </c>
       <c r="E21">
-        <v>0.6721075134695127</v>
+        <v>2.45324108244823</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.043127860317668</v>
+        <v>1.465243211471432</v>
       </c>
       <c r="H21">
-        <v>0.966949375883928</v>
+        <v>0.7982226539126316</v>
       </c>
       <c r="I21">
-        <v>0.7682980574254259</v>
+        <v>0.7044924679098088</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8502361668726053</v>
+        <v>2.702420451369022</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.543544957834776</v>
+        <v>0.6931869608957584</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7372438613971326</v>
+        <v>2.303088846056767</v>
       </c>
       <c r="C22">
-        <v>0.1923829942354587</v>
+        <v>0.6653704742858793</v>
       </c>
       <c r="D22">
-        <v>0.1219175284262519</v>
+        <v>0.3675811230433226</v>
       </c>
       <c r="E22">
-        <v>0.7213536737698121</v>
+        <v>2.670175639862464</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.062023572976045</v>
+        <v>1.567152693410748</v>
       </c>
       <c r="H22">
-        <v>0.9720860446286679</v>
+        <v>0.8392836424804955</v>
       </c>
       <c r="I22">
-        <v>0.7732142219275389</v>
+        <v>0.7413300062079458</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9055362132981486</v>
+        <v>2.920451035176228</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.533423158863677</v>
+        <v>0.6719683983732168</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7139170418475373</v>
+        <v>2.211868043486163</v>
       </c>
       <c r="C23">
-        <v>0.1856844126381816</v>
+        <v>0.6380391537776404</v>
       </c>
       <c r="D23">
-        <v>0.1182065957978722</v>
+        <v>0.3528679639824333</v>
       </c>
       <c r="E23">
-        <v>0.6950534662712045</v>
+        <v>2.553611405583368</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.051882888634964</v>
+        <v>1.512309721218116</v>
       </c>
       <c r="H23">
-        <v>0.9693041074282007</v>
+        <v>0.817146074858357</v>
       </c>
       <c r="I23">
-        <v>0.7705548239716151</v>
+        <v>0.7214523249966049</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.876003696719124</v>
+        <v>2.803670056903144</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.538777720616764</v>
+        <v>0.6830877069134331</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6258941805396887</v>
+        <v>1.872339461918983</v>
       </c>
       <c r="C24">
-        <v>0.1603905390917362</v>
+        <v>0.5370120019738067</v>
       </c>
       <c r="D24">
-        <v>0.1042259989317387</v>
+        <v>0.2982626436885596</v>
       </c>
       <c r="E24">
-        <v>0.5957969405463643</v>
+        <v>2.127910523236736</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.014694673542749</v>
+        <v>1.31390428337383</v>
       </c>
       <c r="H24">
-        <v>0.9596536554321915</v>
+        <v>0.7379092234133111</v>
       </c>
       <c r="I24">
-        <v>0.7612615017164472</v>
+        <v>0.6506550802172768</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7645430629644636</v>
+        <v>2.369783328612584</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.560101392003986</v>
+        <v>0.7295091645518781</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5316315519309853</v>
+        <v>1.516020906148924</v>
       </c>
       <c r="C25">
-        <v>0.1332597433565752</v>
+        <v>0.4321510556669637</v>
       </c>
       <c r="D25">
-        <v>0.08930084358107138</v>
+        <v>0.2412658490736277</v>
       </c>
       <c r="E25">
-        <v>0.489398547564889</v>
+        <v>1.694421989349621</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.9771494820024458</v>
+        <v>1.116161917601104</v>
       </c>
       <c r="H25">
-        <v>0.9511245888112967</v>
+        <v>0.6606447588895321</v>
       </c>
       <c r="I25">
-        <v>0.7528867236163492</v>
+        <v>0.5822776475909777</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6451280359810028</v>
+        <v>1.91573414226508</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.5853184725703</v>
+        <v>0.7876075744300266</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.259722522457139</v>
+        <v>1.071736352067603</v>
       </c>
       <c r="C2">
-        <v>0.3574449722021882</v>
+        <v>0.1480238675034897</v>
       </c>
       <c r="D2">
-        <v>0.2005045873178233</v>
+        <v>0.1959019908867816</v>
       </c>
       <c r="E2">
-        <v>1.390676485368957</v>
+        <v>0.08493205115204816</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9814319403082123</v>
+        <v>0.4036583352613334</v>
       </c>
       <c r="H2">
-        <v>0.6093968644066337</v>
+        <v>0.0008908788495431974</v>
       </c>
       <c r="I2">
-        <v>0.5374189476568603</v>
+        <v>0.001631470762851084</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3443184877891881</v>
       </c>
       <c r="K2">
-        <v>1.589943584518807</v>
+        <v>0.3872150842437954</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9266357771329297</v>
       </c>
       <c r="N2">
-        <v>0.8362828347555151</v>
+        <v>0.2774347156562555</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.8434016775964519</v>
+      </c>
+      <c r="Q2">
+        <v>1.524134845351952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.088749910803358</v>
+        <v>0.9338767277810405</v>
       </c>
       <c r="C3">
-        <v>0.3079407190221275</v>
+        <v>0.1396005134303095</v>
       </c>
       <c r="D3">
-        <v>0.1734453063163528</v>
+        <v>0.1702743382517582</v>
       </c>
       <c r="E3">
-        <v>1.191716973993238</v>
+        <v>0.07807536068832377</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8955717309366946</v>
+        <v>0.3878239576678766</v>
       </c>
       <c r="H3">
-        <v>0.57758213094192</v>
+        <v>0.001695259252232795</v>
       </c>
       <c r="I3">
-        <v>0.5098502169052068</v>
+        <v>0.002491277868335473</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3408000816815218</v>
       </c>
       <c r="K3">
-        <v>1.372985480951399</v>
+        <v>0.383047102253478</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8083208777176196</v>
       </c>
       <c r="N3">
-        <v>0.8725213857545953</v>
+        <v>0.2449196610172919</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8702049989194913</v>
+      </c>
+      <c r="Q3">
+        <v>1.482928553556604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9848088994570503</v>
+        <v>0.8488596534201349</v>
       </c>
       <c r="C4">
-        <v>0.2779740445114669</v>
+        <v>0.1344339392628981</v>
       </c>
       <c r="D4">
-        <v>0.1570546926149348</v>
+        <v>0.1546359755587048</v>
       </c>
       <c r="E4">
-        <v>1.0721831770405</v>
+        <v>0.07382644641580782</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8451532776810353</v>
+        <v>0.3784248946582309</v>
       </c>
       <c r="H4">
-        <v>0.5593110553907366</v>
+        <v>0.002342297414581695</v>
       </c>
       <c r="I4">
-        <v>0.4941479495334136</v>
+        <v>0.003194462555256017</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3388716461216887</v>
       </c>
       <c r="K4">
-        <v>1.241233258668672</v>
+        <v>0.3806689635876523</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7355601383301718</v>
       </c>
       <c r="N4">
-        <v>0.8962505949936457</v>
+        <v>0.22496652273351</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.887222653775293</v>
+      </c>
+      <c r="Q4">
+        <v>1.458790986836874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9426717215430642</v>
+        <v>0.8134212024775707</v>
       </c>
       <c r="C5">
-        <v>0.2658534433997772</v>
+        <v>0.1324641348590703</v>
       </c>
       <c r="D5">
-        <v>0.1504242702442724</v>
+        <v>0.1482841002127628</v>
       </c>
       <c r="E5">
-        <v>1.024030606604526</v>
+        <v>0.07202717019339389</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8251333066291551</v>
+        <v>0.3743243572906323</v>
       </c>
       <c r="H5">
-        <v>0.552159361500145</v>
+        <v>0.002644903748407423</v>
       </c>
       <c r="I5">
-        <v>0.4880338282623669</v>
+        <v>0.00359869421176251</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.337963101188393</v>
       </c>
       <c r="K5">
-        <v>1.18785285536913</v>
+        <v>0.3794206641310005</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7058614285457878</v>
       </c>
       <c r="N5">
-        <v>0.9062750955362162</v>
+        <v>0.2168957158715585</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8942552672692861</v>
+      </c>
+      <c r="Q5">
+        <v>1.44812257259737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9356869988414189</v>
+        <v>0.8066761159253133</v>
       </c>
       <c r="C6">
-        <v>0.2638458603773302</v>
+        <v>0.1323045932940374</v>
       </c>
       <c r="D6">
-        <v>0.1493260395220375</v>
+        <v>0.1472296652403742</v>
       </c>
       <c r="E6">
-        <v>1.016065822104622</v>
+        <v>0.07165716145106771</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8218393164472388</v>
+        <v>0.3732228469008732</v>
       </c>
       <c r="H6">
-        <v>0.5509889204537899</v>
+        <v>0.002699776946004762</v>
       </c>
       <c r="I6">
-        <v>0.4870351275016063</v>
+        <v>0.003767669885096581</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3375963113786256</v>
       </c>
       <c r="K6">
-        <v>1.179006184963782</v>
+        <v>0.37882102772042</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7009096061194668</v>
       </c>
       <c r="N6">
-        <v>0.9079606001976543</v>
+        <v>0.2156280870593861</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8953838580425524</v>
+      </c>
+      <c r="Q6">
+        <v>1.445006907468425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9842397854911553</v>
+        <v>0.8460396129523531</v>
       </c>
       <c r="C7">
-        <v>0.2778102344020397</v>
+        <v>0.1348668013342191</v>
       </c>
       <c r="D7">
-        <v>0.1569650838978163</v>
+        <v>0.1545475391064173</v>
       </c>
       <c r="E7">
-        <v>1.07153164205134</v>
+        <v>0.07360921410196397</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8448812180924676</v>
+        <v>0.3772080985882837</v>
       </c>
       <c r="H7">
-        <v>0.5592134451349295</v>
+        <v>0.002352269099370141</v>
       </c>
       <c r="I7">
-        <v>0.4940643692847502</v>
+        <v>0.003455276231521864</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3382610833785193</v>
       </c>
       <c r="K7">
-        <v>1.240512170857073</v>
+        <v>0.3795740684098199</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7351092787337734</v>
       </c>
       <c r="N7">
-        <v>0.8963843746199132</v>
+        <v>0.2250563781052648</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8871989652871486</v>
+      </c>
+      <c r="Q7">
+        <v>1.454931385220434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.200530160830169</v>
+        <v>1.02114713169405</v>
       </c>
       <c r="C8">
-        <v>0.3402762378346438</v>
+        <v>0.1457359722587981</v>
       </c>
       <c r="D8">
-        <v>0.1911234384087237</v>
+        <v>0.1870395750952838</v>
       </c>
       <c r="E8">
-        <v>1.321464944592492</v>
+        <v>0.08232002577057074</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.9513170894031049</v>
+        <v>0.3965944120459</v>
       </c>
       <c r="H8">
-        <v>0.598150051303989</v>
+        <v>0.001140734511218433</v>
       </c>
       <c r="I8">
-        <v>0.527644346136789</v>
+        <v>0.002197304411771128</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3422690373039075</v>
       </c>
       <c r="K8">
-        <v>1.514796988659754</v>
+        <v>0.3843192467313088</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8857922237597506</v>
       </c>
       <c r="N8">
-        <v>0.8484602637311625</v>
+        <v>0.2664860109503451</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8524208222824701</v>
+      </c>
+      <c r="Q8">
+        <v>1.504775861321946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.634953970333811</v>
+        <v>1.365936463549389</v>
       </c>
       <c r="C9">
-        <v>0.467021463284425</v>
+        <v>0.1663406813328123</v>
       </c>
       <c r="D9">
-        <v>0.2602512693124908</v>
+        <v>0.2516654418870559</v>
       </c>
       <c r="E9">
-        <v>1.837643504252497</v>
+        <v>0.09945367099950175</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.180891142091269</v>
+        <v>0.439437911987838</v>
       </c>
       <c r="H9">
-        <v>0.6857078642628096</v>
+        <v>4.760583064400414E-05</v>
       </c>
       <c r="I9">
-        <v>0.6043729744664077</v>
+        <v>0.0008120940164744184</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3531100201336699</v>
       </c>
       <c r="K9">
-        <v>2.067142492126493</v>
+        <v>0.3970495930520208</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.180685242807215</v>
       </c>
       <c r="N9">
-        <v>0.7670589556651848</v>
+        <v>0.3475432092277657</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.7889353118616178</v>
+      </c>
+      <c r="Q9">
+        <v>1.61893690423517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.963586475133297</v>
+        <v>1.606382344457302</v>
       </c>
       <c r="C10">
-        <v>0.5640551768005082</v>
+        <v>0.1835969791922523</v>
       </c>
       <c r="D10">
-        <v>0.31291168996934</v>
+        <v>0.2998620983009914</v>
       </c>
       <c r="E10">
-        <v>2.24107673689852</v>
+        <v>0.1068233549291264</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.366312726808815</v>
+        <v>0.4665708490853717</v>
       </c>
       <c r="H10">
-        <v>0.7586964129429532</v>
+        <v>0.0002944732476404255</v>
       </c>
       <c r="I10">
-        <v>0.669170347509727</v>
+        <v>0.0009243053285024061</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3591889537862443</v>
       </c>
       <c r="K10">
-        <v>2.486269319413793</v>
+        <v>0.4022143505831863</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.395524909483811</v>
       </c>
       <c r="N10">
-        <v>0.7162252348030904</v>
+        <v>0.3895855833161477</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7455828026436198</v>
+      </c>
+      <c r="Q10">
+        <v>1.689614359532953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.115958771418036</v>
+        <v>1.623226888154136</v>
       </c>
       <c r="C11">
-        <v>0.6093898504642823</v>
+        <v>0.2089913875864937</v>
       </c>
       <c r="D11">
-        <v>0.3374171434630284</v>
+        <v>0.3217396264431756</v>
       </c>
       <c r="E11">
-        <v>2.43207137113302</v>
+        <v>0.07321094832707331</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.455336383843189</v>
+        <v>0.4287789431088669</v>
       </c>
       <c r="H11">
-        <v>0.794248862315186</v>
+        <v>0.01882995109178864</v>
       </c>
       <c r="I11">
-        <v>0.7009349045403042</v>
+        <v>0.001524180312274304</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3366947668366151</v>
       </c>
       <c r="K11">
-        <v>2.680983048575257</v>
+        <v>0.3639180134365461</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.478157085117886</v>
       </c>
       <c r="N11">
-        <v>0.695380971439711</v>
+        <v>0.2688195811188621</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.733250167675191</v>
+      </c>
+      <c r="Q11">
+        <v>1.562568855857506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.174148967012115</v>
+        <v>1.589687061860559</v>
       </c>
       <c r="C12">
-        <v>0.6267614282869829</v>
+        <v>0.2285391224224469</v>
       </c>
       <c r="D12">
-        <v>0.3467891661095166</v>
+        <v>0.3299581824545328</v>
       </c>
       <c r="E12">
-        <v>2.505689106590197</v>
+        <v>0.05216345602055306</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.489818320551194</v>
+        <v>0.3937338737901115</v>
       </c>
       <c r="H12">
-        <v>0.8080942745893651</v>
+        <v>0.0574586955669929</v>
       </c>
       <c r="I12">
-        <v>0.7133360036750389</v>
+        <v>0.001533057719732334</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3175757548769127</v>
       </c>
       <c r="K12">
-        <v>2.755408152808087</v>
+        <v>0.3336585445887934</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.50229450742043</v>
       </c>
       <c r="N12">
-        <v>0.6878478039741793</v>
+        <v>0.1775462629057003</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.736595519241412</v>
+      </c>
+      <c r="Q12">
+        <v>1.448302953642241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.161593545749952</v>
+        <v>1.511967924092801</v>
       </c>
       <c r="C13">
-        <v>0.623010492673842</v>
+        <v>0.2451904956438966</v>
       </c>
       <c r="D13">
-        <v>0.3447663988794858</v>
+        <v>0.3279931459873922</v>
       </c>
       <c r="E13">
-        <v>2.489772896932223</v>
+        <v>0.03921214837015441</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.482356042234585</v>
+        <v>0.3568946264685238</v>
       </c>
       <c r="H13">
-        <v>0.8050946351898745</v>
+        <v>0.1131513239627111</v>
       </c>
       <c r="I13">
-        <v>0.7106478830769092</v>
+        <v>0.001440285848234524</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2989520560375851</v>
       </c>
       <c r="K13">
-        <v>2.739346749383571</v>
+        <v>0.3060992203479884</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.482482986242502</v>
       </c>
       <c r="N13">
-        <v>0.6894536341331658</v>
+        <v>0.1042870432190881</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7513180200094745</v>
+      </c>
+      <c r="Q13">
+        <v>1.331187973918887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.120735818072632</v>
+        <v>1.437291610292334</v>
       </c>
       <c r="C14">
-        <v>0.610814722672842</v>
+        <v>0.2559438229435642</v>
       </c>
       <c r="D14">
-        <v>0.3381862533685194</v>
+        <v>0.322005312348324</v>
       </c>
       <c r="E14">
-        <v>2.438100677497061</v>
+        <v>0.03495819618203277</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.458157180548369</v>
+        <v>0.3303295689145145</v>
       </c>
       <c r="H14">
-        <v>0.7953799915971729</v>
+        <v>0.1624626243319369</v>
       </c>
       <c r="I14">
-        <v>0.7019474148714835</v>
+        <v>0.001427239450437767</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2861230452976784</v>
       </c>
       <c r="K14">
-        <v>2.687091520335628</v>
+        <v>0.2881183898027864</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.448741299263958</v>
       </c>
       <c r="N14">
-        <v>0.6947537972517424</v>
+        <v>0.0642267814818922</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.767184005042445</v>
+      </c>
+      <c r="Q14">
+        <v>1.247955568717785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.095775544478414</v>
+        <v>1.409034812123451</v>
       </c>
       <c r="C15">
-        <v>0.6033721154505258</v>
+        <v>0.2579122584031097</v>
       </c>
       <c r="D15">
-        <v>0.3341681691182572</v>
+        <v>0.3183785717383358</v>
       </c>
       <c r="E15">
-        <v>2.406625287289771</v>
+        <v>0.03452962786008063</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.443438170702393</v>
+        <v>0.3230539582619514</v>
       </c>
       <c r="H15">
-        <v>0.789480721525905</v>
+        <v>0.1749588220648803</v>
       </c>
       <c r="I15">
-        <v>0.6966680299579338</v>
+        <v>0.001525497330423953</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.282902465827199</v>
       </c>
       <c r="K15">
-        <v>2.655177168934557</v>
+        <v>0.2838533861729573</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.431188606406067</v>
       </c>
       <c r="N15">
-        <v>0.6980482210562258</v>
+        <v>0.05584345547247693</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7729774970254013</v>
+      </c>
+      <c r="Q15">
+        <v>1.225756375458189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.953692787333921</v>
+        <v>1.321990740930403</v>
       </c>
       <c r="C16">
-        <v>0.5611191629700159</v>
+        <v>0.2467633528743249</v>
       </c>
       <c r="D16">
-        <v>0.3113223665407361</v>
+        <v>0.2977952585394519</v>
       </c>
       <c r="E16">
-        <v>2.228762990040295</v>
+        <v>0.03424994420686467</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.360597018238792</v>
+        <v>0.3183691039894185</v>
       </c>
       <c r="H16">
-        <v>0.7564239431703186</v>
+        <v>0.1621652207077915</v>
       </c>
       <c r="I16">
-        <v>0.6671440988280395</v>
+        <v>0.001602341718764499</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2836747210905202</v>
       </c>
       <c r="K16">
-        <v>2.473634817196171</v>
+        <v>0.286724097436899</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.34279708841828</v>
       </c>
       <c r="N16">
-        <v>0.717636003923829</v>
+        <v>0.05488943944708424</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.7862810601202312</v>
+      </c>
+      <c r="Q16">
+        <v>1.217261835773343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.867317745500372</v>
+        <v>1.294582518236297</v>
       </c>
       <c r="C17">
-        <v>0.5355259699644535</v>
+        <v>0.2324274125749639</v>
       </c>
       <c r="D17">
-        <v>0.297457031440544</v>
+        <v>0.2852668105979603</v>
       </c>
       <c r="E17">
-        <v>2.121708459496872</v>
+        <v>0.03546162195101021</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.311040131941581</v>
+        <v>0.3287723979576356</v>
       </c>
       <c r="H17">
-        <v>0.7367764872860505</v>
+        <v>0.1243660413167191</v>
       </c>
       <c r="I17">
-        <v>0.6496474444226834</v>
+        <v>0.001702907835956502</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2910660658253974</v>
       </c>
       <c r="K17">
-        <v>2.363375128689484</v>
+        <v>0.2983058978376505</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.293051790731965</v>
       </c>
       <c r="N17">
-        <v>0.7302581916990647</v>
+        <v>0.07330449049066345</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.7881637152252345</v>
+      </c>
+      <c r="Q17">
+        <v>1.254683239940846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.817902676532555</v>
+        <v>1.317173775606989</v>
       </c>
       <c r="C18">
-        <v>0.5209155903647513</v>
+        <v>0.2141745116725815</v>
       </c>
       <c r="D18">
-        <v>0.2895329453688475</v>
+        <v>0.2781523053650687</v>
       </c>
       <c r="E18">
-        <v>2.060821854505065</v>
+        <v>0.04235618785408057</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.282969731526947</v>
+        <v>0.3546549480379753</v>
       </c>
       <c r="H18">
-        <v>0.7256939679640766</v>
+        <v>0.07152477047966244</v>
       </c>
       <c r="I18">
-        <v>0.6397962766890686</v>
+        <v>0.001497383663038754</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3055875582377965</v>
       </c>
       <c r="K18">
-        <v>2.300330691369851</v>
+        <v>0.3202229388951103</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.270706075107285</v>
       </c>
       <c r="N18">
-        <v>0.7377306209592973</v>
+        <v>0.120399420435092</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.7821597894650587</v>
+      </c>
+      <c r="Q18">
+        <v>1.339901441509255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.801215012706336</v>
+        <v>1.374365881356539</v>
       </c>
       <c r="C19">
-        <v>0.5159867580744901</v>
+        <v>0.1971130365527216</v>
       </c>
       <c r="D19">
-        <v>0.2868583463288843</v>
+        <v>0.275854717361014</v>
       </c>
       <c r="E19">
-        <v>2.040318812436581</v>
+        <v>0.05953339627922105</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.273537212934201</v>
+        <v>0.3903100758752984</v>
       </c>
       <c r="H19">
-        <v>0.7219778197004985</v>
+        <v>0.02625288603903186</v>
       </c>
       <c r="I19">
-        <v>0.6364960871978127</v>
+        <v>0.001592395502128419</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3242510477978868</v>
       </c>
       <c r="K19">
-        <v>2.279046072400632</v>
+        <v>0.3487303326162738</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.271787116719423</v>
       </c>
       <c r="N19">
-        <v>0.7402962332171725</v>
+        <v>0.20262501438296</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.7740041688623371</v>
+      </c>
+      <c r="Q19">
+        <v>1.454557553554622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.876484505741757</v>
+        <v>1.535435631897627</v>
       </c>
       <c r="C20">
-        <v>0.5382387860599636</v>
+        <v>0.1806681230197</v>
       </c>
       <c r="D20">
-        <v>0.2989276620881753</v>
+        <v>0.2871337708076709</v>
       </c>
       <c r="E20">
-        <v>2.133031885233351</v>
+        <v>0.1040964158911279</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.316270016884147</v>
+        <v>0.4554804112590318</v>
       </c>
       <c r="H20">
-        <v>0.738845106517914</v>
+        <v>0.0001503242293390272</v>
       </c>
       <c r="I20">
-        <v>0.6514877074437351</v>
+        <v>0.00160465601628168</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3555552049742658</v>
       </c>
       <c r="K20">
-        <v>2.37507300695583</v>
+        <v>0.3973039310059718</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.338859014771543</v>
       </c>
       <c r="N20">
-        <v>0.7288923266293992</v>
+        <v>0.3784171322586758</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7567947663833881</v>
+      </c>
+      <c r="Q20">
+        <v>1.658383696565636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.132722763124917</v>
+        <v>1.736666390905128</v>
       </c>
       <c r="C21">
-        <v>0.6143910881649788</v>
+        <v>0.1911032164780764</v>
       </c>
       <c r="D21">
-        <v>0.3401163822454834</v>
+        <v>0.3244523171080118</v>
       </c>
       <c r="E21">
-        <v>2.45324108244823</v>
+        <v>0.1175063049244862</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.465243211471432</v>
+        <v>0.486621827297725</v>
       </c>
       <c r="H21">
-        <v>0.7982226539126316</v>
+        <v>0.0004206124397738709</v>
       </c>
       <c r="I21">
-        <v>0.7044924679098088</v>
+        <v>0.00187549774760587</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3655146738111199</v>
       </c>
       <c r="K21">
-        <v>2.702420451369022</v>
+        <v>0.4095767914292914</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.506445924360065</v>
       </c>
       <c r="N21">
-        <v>0.6931869608957584</v>
+        <v>0.438255254992157</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.7242022454067421</v>
+      </c>
+      <c r="Q21">
+        <v>1.745577506630951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.303088846056767</v>
+        <v>1.865974648387606</v>
       </c>
       <c r="C22">
-        <v>0.6653704742858793</v>
+        <v>0.1982186925115172</v>
       </c>
       <c r="D22">
-        <v>0.3675811230433226</v>
+        <v>0.3490335918964007</v>
       </c>
       <c r="E22">
-        <v>2.670175639862464</v>
+        <v>0.1239775029747179</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.567152693410748</v>
+        <v>0.506005734715373</v>
       </c>
       <c r="H22">
-        <v>0.8392836424804955</v>
+        <v>0.0008652784550493564</v>
       </c>
       <c r="I22">
-        <v>0.7413300062079458</v>
+        <v>0.001962179823980392</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3715884092047048</v>
       </c>
       <c r="K22">
-        <v>2.920451035176228</v>
+        <v>0.4168085271399775</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.615286937716604</v>
       </c>
       <c r="N22">
-        <v>0.6719683983732168</v>
+        <v>0.4680876158181206</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7036058773889948</v>
+      </c>
+      <c r="Q22">
+        <v>1.799590805520552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.211868043486163</v>
+        <v>1.799840307449955</v>
       </c>
       <c r="C23">
-        <v>0.6380391537776404</v>
+        <v>0.1938261773032863</v>
       </c>
       <c r="D23">
-        <v>0.3528679639824333</v>
+        <v>0.3359003934104123</v>
       </c>
       <c r="E23">
-        <v>2.553611405583368</v>
+        <v>0.120754006387056</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.512309721218116</v>
+        <v>0.4969763429514273</v>
       </c>
       <c r="H23">
-        <v>0.817146074858357</v>
+        <v>0.0006119646737636764</v>
       </c>
       <c r="I23">
-        <v>0.7214523249966049</v>
+        <v>0.001599103111940003</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3690106806504048</v>
       </c>
       <c r="K23">
-        <v>2.803670056903144</v>
+        <v>0.4141724564999194</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.557257279879423</v>
       </c>
       <c r="N23">
-        <v>0.6830877069134331</v>
+        <v>0.4519133563843667</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7145013318530857</v>
+      </c>
+      <c r="Q23">
+        <v>1.774943961897833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.872339461918983</v>
+        <v>1.544495499689816</v>
       </c>
       <c r="C24">
-        <v>0.5370120019738067</v>
+        <v>0.1782626028490455</v>
       </c>
       <c r="D24">
-        <v>0.2982626436885596</v>
+        <v>0.2865563084852027</v>
       </c>
       <c r="E24">
-        <v>2.127910523236736</v>
+        <v>0.1081500299363185</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.31390428337383</v>
+        <v>0.4615861058240114</v>
       </c>
       <c r="H24">
-        <v>0.7379092234133111</v>
+        <v>4.248407743334681E-05</v>
       </c>
       <c r="I24">
-        <v>0.6506550802172768</v>
+        <v>0.001116954299551942</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.358736008271805</v>
       </c>
       <c r="K24">
-        <v>2.369783328612584</v>
+        <v>0.4027167409905168</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.337577039620669</v>
       </c>
       <c r="N24">
-        <v>0.7295091645518781</v>
+        <v>0.3912053135257594</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.7570954722709224</v>
+      </c>
+      <c r="Q24">
+        <v>1.677984546472942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.516020906148924</v>
+        <v>1.268623219803942</v>
       </c>
       <c r="C25">
-        <v>0.4321510556669637</v>
+        <v>0.1616097704017108</v>
       </c>
       <c r="D25">
-        <v>0.2412658490736277</v>
+        <v>0.2340592534380619</v>
       </c>
       <c r="E25">
-        <v>1.694421989349621</v>
+        <v>0.09449815277471885</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.116161917601104</v>
+        <v>0.4254342047909319</v>
       </c>
       <c r="H25">
-        <v>0.6606447588895321</v>
+        <v>0.0001973395436241088</v>
       </c>
       <c r="I25">
-        <v>0.5822776475909777</v>
+        <v>0.001450626641847919</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.348892574377075</v>
       </c>
       <c r="K25">
-        <v>1.91573414226508</v>
+        <v>0.3915075460388344</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.100847491344439</v>
       </c>
       <c r="N25">
-        <v>0.7876075744300266</v>
+        <v>0.3259516494753001</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8055438071551144</v>
+      </c>
+      <c r="Q25">
+        <v>1.580252902766119</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.071736352067603</v>
+        <v>1.024899837607364</v>
       </c>
       <c r="C2">
-        <v>0.1480238675034897</v>
+        <v>0.1432004325718523</v>
       </c>
       <c r="D2">
-        <v>0.1959019908867816</v>
+        <v>0.1960886419504391</v>
       </c>
       <c r="E2">
-        <v>0.08493205115204816</v>
+        <v>0.08019774411718572</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4036583352613334</v>
+        <v>0.35652216222649</v>
       </c>
       <c r="H2">
-        <v>0.0008908788495431974</v>
+        <v>0.0006264810409476462</v>
       </c>
       <c r="I2">
-        <v>0.001631470762851084</v>
+        <v>0.001247152253454509</v>
       </c>
       <c r="J2">
-        <v>0.3443184877891881</v>
+        <v>0.3577374478796074</v>
       </c>
       <c r="K2">
-        <v>0.3872150842437954</v>
+        <v>0.3525775671420526</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1734782786481794</v>
       </c>
       <c r="M2">
-        <v>0.9266357771329297</v>
+        <v>0.09754033148657903</v>
       </c>
       <c r="N2">
-        <v>0.2774347156562555</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9276163326820779</v>
       </c>
       <c r="P2">
-        <v>0.8434016775964519</v>
+        <v>0.2851561899995261</v>
       </c>
       <c r="Q2">
-        <v>1.524134845351952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8237754947769833</v>
+      </c>
+      <c r="S2">
+        <v>1.423949486906309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9338767277810405</v>
+        <v>0.89643622114599</v>
       </c>
       <c r="C3">
-        <v>0.1396005134303095</v>
+        <v>0.132183625888473</v>
       </c>
       <c r="D3">
-        <v>0.1702743382517582</v>
+        <v>0.1704711206378846</v>
       </c>
       <c r="E3">
-        <v>0.07807536068832377</v>
+        <v>0.07413598461470272</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3878239576678766</v>
+        <v>0.3450044870649478</v>
       </c>
       <c r="H3">
-        <v>0.001695259252232795</v>
+        <v>0.001268794136265239</v>
       </c>
       <c r="I3">
-        <v>0.002491277868335473</v>
+        <v>0.001843847915539154</v>
       </c>
       <c r="J3">
-        <v>0.3408000816815218</v>
+        <v>0.3533051587308478</v>
       </c>
       <c r="K3">
-        <v>0.383047102253478</v>
+        <v>0.3509937313657545</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1772401103416144</v>
       </c>
       <c r="M3">
-        <v>0.8083208777176196</v>
+        <v>0.09403712954710208</v>
       </c>
       <c r="N3">
-        <v>0.2449196610172919</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8096965039972872</v>
       </c>
       <c r="P3">
-        <v>0.8702049989194913</v>
+        <v>0.2520105544915339</v>
       </c>
       <c r="Q3">
-        <v>1.482928553556604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8478468179072038</v>
+      </c>
+      <c r="S3">
+        <v>1.392854773341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8488596534201349</v>
+        <v>0.8170129458706015</v>
       </c>
       <c r="C4">
-        <v>0.1344339392628981</v>
+        <v>0.1254901321977968</v>
       </c>
       <c r="D4">
-        <v>0.1546359755587048</v>
+        <v>0.1548337797041768</v>
       </c>
       <c r="E4">
-        <v>0.07382644641580782</v>
+        <v>0.07036728912759216</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3784248946582309</v>
+        <v>0.3382558684920909</v>
       </c>
       <c r="H4">
-        <v>0.002342297414581695</v>
+        <v>0.001795877060646101</v>
       </c>
       <c r="I4">
-        <v>0.003194462555256017</v>
+        <v>0.002360101709391937</v>
       </c>
       <c r="J4">
-        <v>0.3388716461216887</v>
+        <v>0.3506516594067506</v>
       </c>
       <c r="K4">
-        <v>0.3806689635876523</v>
+        <v>0.3501271984531229</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1795958316987658</v>
       </c>
       <c r="M4">
-        <v>0.7355601383301718</v>
+        <v>0.09242568735300516</v>
       </c>
       <c r="N4">
-        <v>0.22496652273351</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7371449321236128</v>
       </c>
       <c r="P4">
-        <v>0.887222653775293</v>
+        <v>0.2316824537684141</v>
       </c>
       <c r="Q4">
-        <v>1.458790986836874</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8632096211402462</v>
+      </c>
+      <c r="S4">
+        <v>1.374624828975016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8134212024775707</v>
+        <v>0.7838221121670017</v>
       </c>
       <c r="C5">
-        <v>0.1324641348590703</v>
+        <v>0.1229418100397197</v>
       </c>
       <c r="D5">
-        <v>0.1482841002127628</v>
+        <v>0.1484812008855556</v>
       </c>
       <c r="E5">
-        <v>0.07202717019339389</v>
+        <v>0.06876337968531487</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3743243572906323</v>
+        <v>0.3352513677285245</v>
       </c>
       <c r="H5">
-        <v>0.002644903748407423</v>
+        <v>0.002044398186377583</v>
       </c>
       <c r="I5">
-        <v>0.00359869421176251</v>
+        <v>0.002694264510999744</v>
       </c>
       <c r="J5">
-        <v>0.337963101188393</v>
+        <v>0.3494052426104304</v>
       </c>
       <c r="K5">
-        <v>0.3794206641310005</v>
+        <v>0.3494945902266124</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1804145904810461</v>
       </c>
       <c r="M5">
-        <v>0.7058614285457878</v>
+        <v>0.09182669750031636</v>
       </c>
       <c r="N5">
-        <v>0.2168957158715585</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7075242800446091</v>
       </c>
       <c r="P5">
-        <v>0.8942552672692861</v>
+        <v>0.2234626671309599</v>
       </c>
       <c r="Q5">
-        <v>1.44812257259737</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8696022735923492</v>
+      </c>
+      <c r="S5">
+        <v>1.366326244581472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8066761159253133</v>
+        <v>0.7774614026187407</v>
       </c>
       <c r="C6">
-        <v>0.1323045932940374</v>
+        <v>0.1227211972229725</v>
       </c>
       <c r="D6">
-        <v>0.1472296652403742</v>
+        <v>0.1474266147265837</v>
       </c>
       <c r="E6">
-        <v>0.07165716145106771</v>
+        <v>0.06842764447905125</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3732228469008732</v>
+        <v>0.334351972111179</v>
       </c>
       <c r="H6">
-        <v>0.002699776946004762</v>
+        <v>0.002089659778167885</v>
       </c>
       <c r="I6">
-        <v>0.003767669885096581</v>
+        <v>0.002867692429425084</v>
       </c>
       <c r="J6">
-        <v>0.3375963113786256</v>
+        <v>0.3489772559540469</v>
       </c>
       <c r="K6">
-        <v>0.37882102772042</v>
+        <v>0.3490185513700226</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1803653028292693</v>
       </c>
       <c r="M6">
-        <v>0.7009096061194668</v>
+        <v>0.09164015732007336</v>
       </c>
       <c r="N6">
-        <v>0.2156280870593861</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7025854256443154</v>
       </c>
       <c r="P6">
-        <v>0.8953838580425524</v>
+        <v>0.2221712105205285</v>
       </c>
       <c r="Q6">
-        <v>1.445006907468425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8706602987874135</v>
+      </c>
+      <c r="S6">
+        <v>1.363644362007747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8460396129523531</v>
+        <v>0.8138260926111514</v>
       </c>
       <c r="C7">
-        <v>0.1348668013342191</v>
+        <v>0.1258522438856104</v>
       </c>
       <c r="D7">
-        <v>0.1545475391064173</v>
+        <v>0.1547434235822038</v>
       </c>
       <c r="E7">
-        <v>0.07360921410196397</v>
+        <v>0.07018849633269753</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3772080985882837</v>
+        <v>0.3396754406490032</v>
       </c>
       <c r="H7">
-        <v>0.002352269099370141</v>
+        <v>0.001806682332863407</v>
       </c>
       <c r="I7">
-        <v>0.003455276231521864</v>
+        <v>0.00266572652343644</v>
       </c>
       <c r="J7">
-        <v>0.3382610833785193</v>
+        <v>0.3461921900690683</v>
       </c>
       <c r="K7">
-        <v>0.3795740684098199</v>
+        <v>0.3487253516946929</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.178928369702323</v>
       </c>
       <c r="M7">
-        <v>0.7351092787337734</v>
+        <v>0.09204373770433705</v>
       </c>
       <c r="N7">
-        <v>0.2250563781052648</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7359595110901722</v>
       </c>
       <c r="P7">
-        <v>0.8871989652871486</v>
+        <v>0.2317095476597189</v>
       </c>
       <c r="Q7">
-        <v>1.454931385220434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8632849378560898</v>
+      </c>
+      <c r="S7">
+        <v>1.368660717917152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02114713169405</v>
+        <v>0.9761846296115948</v>
       </c>
       <c r="C8">
-        <v>0.1457359722587981</v>
+        <v>0.1396080593968421</v>
       </c>
       <c r="D8">
-        <v>0.1870395750952838</v>
+        <v>0.1872234694532011</v>
       </c>
       <c r="E8">
-        <v>0.08232002577057074</v>
+        <v>0.07797285936305798</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3965944120459</v>
+        <v>0.3596216683360964</v>
       </c>
       <c r="H8">
-        <v>0.001140734511218433</v>
+        <v>0.0008289686541207431</v>
       </c>
       <c r="I8">
-        <v>0.002197304411771128</v>
+        <v>0.001788282729703994</v>
       </c>
       <c r="J8">
-        <v>0.3422690373039075</v>
+        <v>0.3429082608385698</v>
       </c>
       <c r="K8">
-        <v>0.3843192467313088</v>
+        <v>0.3494429290325307</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.173618897029165</v>
       </c>
       <c r="M8">
-        <v>0.8857922237597506</v>
+        <v>0.0954294688126911</v>
       </c>
       <c r="N8">
-        <v>0.2664860109503451</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8844458117823137</v>
       </c>
       <c r="P8">
-        <v>0.8524208222824701</v>
+        <v>0.2737817587597107</v>
       </c>
       <c r="Q8">
-        <v>1.504775861321946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8321040626087726</v>
+      </c>
+      <c r="S8">
+        <v>1.400856719327734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.365936463549389</v>
+        <v>1.296025832513266</v>
       </c>
       <c r="C9">
-        <v>0.1663406813328123</v>
+        <v>0.1667904873089228</v>
       </c>
       <c r="D9">
-        <v>0.2516654418870559</v>
+        <v>0.2517831241085275</v>
       </c>
       <c r="E9">
-        <v>0.09945367099950175</v>
+        <v>0.09310151554896251</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.439437911987838</v>
+        <v>0.3940468762313998</v>
       </c>
       <c r="H9">
-        <v>4.760583064400414E-05</v>
+        <v>1.36151152525521E-05</v>
       </c>
       <c r="I9">
-        <v>0.0008120940164744184</v>
+        <v>0.0008519575446239713</v>
       </c>
       <c r="J9">
-        <v>0.3531100201336699</v>
+        <v>0.3516609467440119</v>
       </c>
       <c r="K9">
-        <v>0.3970495930520208</v>
+        <v>0.3549038272660923</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1650314639042669</v>
       </c>
       <c r="M9">
-        <v>1.180685242807215</v>
+        <v>0.1073040387679107</v>
       </c>
       <c r="N9">
-        <v>0.3475432092277657</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.177395321824946</v>
       </c>
       <c r="P9">
-        <v>0.7889353118616178</v>
+        <v>0.356410973058658</v>
       </c>
       <c r="Q9">
-        <v>1.61893690423517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7756126340844745</v>
+      </c>
+      <c r="S9">
+        <v>1.485869303497708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.606382344457302</v>
+        <v>1.515822612400882</v>
       </c>
       <c r="C10">
-        <v>0.1835969791922523</v>
+        <v>0.1884768864831727</v>
       </c>
       <c r="D10">
-        <v>0.2998620983009914</v>
+        <v>0.2998740968406537</v>
       </c>
       <c r="E10">
-        <v>0.1068233549291264</v>
+        <v>0.09943150151886826</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4665708490853717</v>
+        <v>0.4312624769344922</v>
       </c>
       <c r="H10">
-        <v>0.0002944732476404255</v>
+        <v>0.0003367296386462826</v>
       </c>
       <c r="I10">
-        <v>0.0009243053285024061</v>
+        <v>0.001160820965421472</v>
       </c>
       <c r="J10">
-        <v>0.3591889537862443</v>
+        <v>0.3352307049454168</v>
       </c>
       <c r="K10">
-        <v>0.4022143505831863</v>
+        <v>0.3531182735641138</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1566789889252789</v>
       </c>
       <c r="M10">
-        <v>1.395524909483811</v>
+        <v>0.116107486652453</v>
       </c>
       <c r="N10">
-        <v>0.3895855833161477</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.386130916120948</v>
       </c>
       <c r="P10">
-        <v>0.7455828026436198</v>
+        <v>0.3990031720801852</v>
       </c>
       <c r="Q10">
-        <v>1.689614359532953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7387894817871157</v>
+      </c>
+      <c r="S10">
+        <v>1.523145887177066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.623226888154136</v>
+        <v>1.529589103995903</v>
       </c>
       <c r="C11">
-        <v>0.2089913875864937</v>
+        <v>0.2153031814203246</v>
       </c>
       <c r="D11">
-        <v>0.3217396264431756</v>
+        <v>0.321687173062557</v>
       </c>
       <c r="E11">
-        <v>0.07321094832707331</v>
+        <v>0.06790180600288842</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4287789431088669</v>
+        <v>0.429662898014513</v>
       </c>
       <c r="H11">
-        <v>0.01882995109178864</v>
+        <v>0.0188553127189266</v>
       </c>
       <c r="I11">
-        <v>0.001524180312274304</v>
+        <v>0.001880399686205791</v>
       </c>
       <c r="J11">
-        <v>0.3366947668366151</v>
+        <v>0.2794016821168199</v>
       </c>
       <c r="K11">
-        <v>0.3639180134365461</v>
+        <v>0.3159147758284284</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1405505047213822</v>
       </c>
       <c r="M11">
-        <v>1.478157085117886</v>
+        <v>0.1054050121820502</v>
       </c>
       <c r="N11">
-        <v>0.2688195811188621</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.458412754771985</v>
       </c>
       <c r="P11">
-        <v>0.733250167675191</v>
+        <v>0.2757096011009565</v>
       </c>
       <c r="Q11">
-        <v>1.562568855857506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.7374373997382904</v>
+      </c>
+      <c r="S11">
+        <v>1.382579460285655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.589687061860559</v>
+        <v>1.499521444727037</v>
       </c>
       <c r="C12">
-        <v>0.2285391224224469</v>
+        <v>0.2348723189082307</v>
       </c>
       <c r="D12">
-        <v>0.3299581824545328</v>
+        <v>0.3298874365954418</v>
       </c>
       <c r="E12">
-        <v>0.05216345602055306</v>
+        <v>0.04841791013994268</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3937338737901115</v>
+        <v>0.4118429226715108</v>
       </c>
       <c r="H12">
-        <v>0.0574586955669929</v>
+        <v>0.05747537124059932</v>
       </c>
       <c r="I12">
-        <v>0.001533057719732334</v>
+        <v>0.001887302373616784</v>
       </c>
       <c r="J12">
-        <v>0.3175757548769127</v>
+        <v>0.2522465037298645</v>
       </c>
       <c r="K12">
-        <v>0.3336585445887934</v>
+        <v>0.289316449452496</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1305957124014228</v>
       </c>
       <c r="M12">
-        <v>1.50229450742043</v>
+        <v>0.09580873276597401</v>
       </c>
       <c r="N12">
-        <v>0.1775462629057003</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.477821203328489</v>
       </c>
       <c r="P12">
-        <v>0.736595519241412</v>
+        <v>0.1826618280718222</v>
       </c>
       <c r="Q12">
-        <v>1.448302953642241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7482337527801093</v>
+      </c>
+      <c r="S12">
+        <v>1.272631065612543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.511967924092801</v>
+        <v>1.431643792345767</v>
       </c>
       <c r="C13">
-        <v>0.2451904956438966</v>
+        <v>0.251400791738007</v>
       </c>
       <c r="D13">
-        <v>0.3279931459873922</v>
+        <v>0.3279499881192436</v>
       </c>
       <c r="E13">
-        <v>0.03921214837015441</v>
+        <v>0.03677660021184792</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3568946264685238</v>
+        <v>0.3726446068018419</v>
       </c>
       <c r="H13">
-        <v>0.1131513239627111</v>
+        <v>0.1131602253927468</v>
       </c>
       <c r="I13">
-        <v>0.001440285848234524</v>
+        <v>0.001779366835299001</v>
       </c>
       <c r="J13">
-        <v>0.2989520560375851</v>
+        <v>0.2444873245054779</v>
       </c>
       <c r="K13">
-        <v>0.3060992203479884</v>
+        <v>0.2679981419607422</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.123751384832028</v>
       </c>
       <c r="M13">
-        <v>1.482482986242502</v>
+        <v>0.08640568441437679</v>
       </c>
       <c r="N13">
-        <v>0.1042870432190881</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.45947182331102</v>
       </c>
       <c r="P13">
-        <v>0.7513180200094745</v>
+        <v>0.1080871411687667</v>
       </c>
       <c r="Q13">
-        <v>1.331187973918887</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.7664995314288916</v>
+      </c>
+      <c r="S13">
+        <v>1.177320452262634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.437291610292334</v>
+        <v>1.366532059805877</v>
       </c>
       <c r="C14">
-        <v>0.2559438229435642</v>
+        <v>0.2620683757634623</v>
       </c>
       <c r="D14">
-        <v>0.322005312348324</v>
+        <v>0.322000699868596</v>
       </c>
       <c r="E14">
-        <v>0.03495819618203277</v>
+        <v>0.03335082384136256</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3303295689145145</v>
+        <v>0.337011476978887</v>
       </c>
       <c r="H14">
-        <v>0.1624626243319369</v>
+        <v>0.1624626275478107</v>
       </c>
       <c r="I14">
-        <v>0.001427239450437767</v>
+        <v>0.001760335331939089</v>
       </c>
       <c r="J14">
-        <v>0.2861230452976784</v>
+        <v>0.2459878628547187</v>
       </c>
       <c r="K14">
-        <v>0.2881183898027864</v>
+        <v>0.255198217012012</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1200905112553219</v>
       </c>
       <c r="M14">
-        <v>1.448741299263958</v>
+        <v>0.07999658741044868</v>
       </c>
       <c r="N14">
-        <v>0.0642267814818922</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.42944708978925</v>
       </c>
       <c r="P14">
-        <v>0.767184005042445</v>
+        <v>0.06726603211249227</v>
       </c>
       <c r="Q14">
-        <v>1.247955568717785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.7825275182994176</v>
+      </c>
+      <c r="S14">
+        <v>1.115831182796114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.409034812123451</v>
+        <v>1.341813615628212</v>
       </c>
       <c r="C15">
-        <v>0.2579122584031097</v>
+        <v>0.264095444308623</v>
       </c>
       <c r="D15">
-        <v>0.3183785717383358</v>
+        <v>0.3183921132147844</v>
       </c>
       <c r="E15">
-        <v>0.03452962786008063</v>
+        <v>0.03312761170304879</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3230539582619514</v>
+        <v>0.3245777566012649</v>
       </c>
       <c r="H15">
-        <v>0.1749588220648803</v>
+        <v>0.1749536227713548</v>
       </c>
       <c r="I15">
-        <v>0.001525497330423953</v>
+        <v>0.001873786199002581</v>
       </c>
       <c r="J15">
-        <v>0.282902465827199</v>
+        <v>0.2492847397343212</v>
       </c>
       <c r="K15">
-        <v>0.2838533861729573</v>
+        <v>0.2526044177696818</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1195469259015063</v>
       </c>
       <c r="M15">
-        <v>1.431188606406067</v>
+        <v>0.07834634720091849</v>
       </c>
       <c r="N15">
-        <v>0.05584345547247693</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.413949883794402</v>
       </c>
       <c r="P15">
-        <v>0.7729774970254013</v>
+        <v>0.05873475607821632</v>
       </c>
       <c r="Q15">
-        <v>1.225756375458189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.7874590822812948</v>
+      </c>
+      <c r="S15">
+        <v>1.101820673091964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.321990740930403</v>
+        <v>1.265261926075908</v>
       </c>
       <c r="C16">
-        <v>0.2467633528743249</v>
+        <v>0.2531974242704536</v>
       </c>
       <c r="D16">
-        <v>0.2977952585394519</v>
+        <v>0.2978842815587797</v>
       </c>
       <c r="E16">
-        <v>0.03424994420686467</v>
+        <v>0.03293517987061612</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3183691039894185</v>
+        <v>0.2959115392763394</v>
       </c>
       <c r="H16">
-        <v>0.1621652207077915</v>
+        <v>0.1621216686865523</v>
       </c>
       <c r="I16">
-        <v>0.001602341718764499</v>
+        <v>0.001912977309832087</v>
       </c>
       <c r="J16">
-        <v>0.2836747210905202</v>
+        <v>0.277617776396518</v>
       </c>
       <c r="K16">
-        <v>0.286724097436899</v>
+        <v>0.2590083912227961</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1235218022379438</v>
       </c>
       <c r="M16">
-        <v>1.34279708841828</v>
+        <v>0.07800896514369171</v>
       </c>
       <c r="N16">
-        <v>0.05488943944708424</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.335022419472153</v>
       </c>
       <c r="P16">
-        <v>0.7862810601202312</v>
+        <v>0.05806027536310765</v>
       </c>
       <c r="Q16">
-        <v>1.217261835773343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.7933465043857595</v>
+      </c>
+      <c r="S16">
+        <v>1.118022530945922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.294582518236297</v>
+        <v>1.240237827028096</v>
       </c>
       <c r="C17">
-        <v>0.2324274125749639</v>
+        <v>0.2386370321764417</v>
       </c>
       <c r="D17">
-        <v>0.2852668105979603</v>
+        <v>0.2853862608489095</v>
       </c>
       <c r="E17">
-        <v>0.03546162195101021</v>
+        <v>0.03373615634996274</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3287723979576356</v>
+        <v>0.2954325471790327</v>
       </c>
       <c r="H17">
-        <v>0.1243660413167191</v>
+        <v>0.1242947407085069</v>
       </c>
       <c r="I17">
-        <v>0.001702907835956502</v>
+        <v>0.001986988151795543</v>
       </c>
       <c r="J17">
-        <v>0.2910660658253974</v>
+        <v>0.2971131760225347</v>
       </c>
       <c r="K17">
-        <v>0.2983058978376505</v>
+        <v>0.2705072944035152</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1287671607352259</v>
       </c>
       <c r="M17">
-        <v>1.293051790731965</v>
+        <v>0.08084118466029189</v>
       </c>
       <c r="N17">
-        <v>0.07330449049066345</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.28926928595115</v>
       </c>
       <c r="P17">
-        <v>0.7881637152252345</v>
+        <v>0.07711176045226154</v>
       </c>
       <c r="Q17">
-        <v>1.254683239940846</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.790758173285937</v>
+      </c>
+      <c r="S17">
+        <v>1.16124712434366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.317173775606989</v>
+        <v>1.259535587947113</v>
       </c>
       <c r="C18">
-        <v>0.2141745116725815</v>
+        <v>0.2199544245194858</v>
       </c>
       <c r="D18">
-        <v>0.2781523053650687</v>
+        <v>0.2782774874518736</v>
       </c>
       <c r="E18">
-        <v>0.04235618785408057</v>
+        <v>0.03964355253518104</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3546549480379753</v>
+        <v>0.3141890986019007</v>
       </c>
       <c r="H18">
-        <v>0.07152477047966244</v>
+        <v>0.07144999959214005</v>
       </c>
       <c r="I18">
-        <v>0.001497383663038754</v>
+        <v>0.00172550320514997</v>
       </c>
       <c r="J18">
-        <v>0.3055875582377965</v>
+        <v>0.3158167394745135</v>
       </c>
       <c r="K18">
-        <v>0.3202229388951103</v>
+        <v>0.2896650684510753</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1365123129438839</v>
       </c>
       <c r="M18">
-        <v>1.270706075107285</v>
+        <v>0.08726802946316958</v>
       </c>
       <c r="N18">
-        <v>0.120399420435092</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.268501160531258</v>
       </c>
       <c r="P18">
-        <v>0.7821597894650587</v>
+        <v>0.1253701974555881</v>
       </c>
       <c r="Q18">
-        <v>1.339901441509255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.7811407810156723</v>
+      </c>
+      <c r="S18">
+        <v>1.24065350307886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.374365881356539</v>
+        <v>1.309500572074342</v>
       </c>
       <c r="C19">
-        <v>0.1971130365527216</v>
+        <v>0.2024300253975042</v>
       </c>
       <c r="D19">
-        <v>0.275854717361014</v>
+        <v>0.2759687986494583</v>
       </c>
       <c r="E19">
-        <v>0.05953339627922105</v>
+        <v>0.05530011172236904</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3903100758752984</v>
+        <v>0.3441036078738193</v>
       </c>
       <c r="H19">
-        <v>0.02625288603903186</v>
+        <v>0.02620448292708488</v>
       </c>
       <c r="I19">
-        <v>0.001592395502128419</v>
+        <v>0.00186073446466839</v>
       </c>
       <c r="J19">
-        <v>0.3242510477978868</v>
+        <v>0.3340378636999262</v>
       </c>
       <c r="K19">
-        <v>0.3487303326162738</v>
+        <v>0.3135443465126713</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1456524674569337</v>
       </c>
       <c r="M19">
-        <v>1.271787116719423</v>
+        <v>0.09608659614599446</v>
       </c>
       <c r="N19">
-        <v>0.20262501438296</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.26984556937694</v>
       </c>
       <c r="P19">
-        <v>0.7740041688623371</v>
+        <v>0.2092506046033265</v>
       </c>
       <c r="Q19">
-        <v>1.454557553554622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7696443928187406</v>
+      </c>
+      <c r="S19">
+        <v>1.341873619811452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.535435631897627</v>
+        <v>1.452239334710413</v>
       </c>
       <c r="C20">
-        <v>0.1806681230197</v>
+        <v>0.1853782566731184</v>
       </c>
       <c r="D20">
-        <v>0.2871337708076709</v>
+        <v>0.2871889691426333</v>
       </c>
       <c r="E20">
-        <v>0.1040964158911279</v>
+        <v>0.09690146135871558</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4554804112590318</v>
+        <v>0.4081417973531387</v>
       </c>
       <c r="H20">
-        <v>0.0001503242293390272</v>
+        <v>0.0001817835436495052</v>
       </c>
       <c r="I20">
-        <v>0.00160465601628168</v>
+        <v>0.001960494956256831</v>
       </c>
       <c r="J20">
-        <v>0.3555552049742658</v>
+        <v>0.3502895776108659</v>
       </c>
       <c r="K20">
-        <v>0.3973039310059718</v>
+        <v>0.3516920232152252</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1581426348350625</v>
       </c>
       <c r="M20">
-        <v>1.338859014771543</v>
+        <v>0.1129317194916588</v>
       </c>
       <c r="N20">
-        <v>0.3784171322586758</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.333849068525325</v>
       </c>
       <c r="P20">
-        <v>0.7567947663833881</v>
+        <v>0.3879107219974429</v>
       </c>
       <c r="Q20">
-        <v>1.658383696565636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.748433470008365</v>
+      </c>
+      <c r="S20">
+        <v>1.509535625690319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.736666390905128</v>
+        <v>1.626690678961751</v>
       </c>
       <c r="C21">
-        <v>0.1911032164780764</v>
+        <v>0.1957691325729911</v>
       </c>
       <c r="D21">
-        <v>0.3244523171080118</v>
+        <v>0.3243436654448004</v>
       </c>
       <c r="E21">
-        <v>0.1175063049244862</v>
+        <v>0.1096982132339868</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.486621827297725</v>
+        <v>0.4992324244857826</v>
       </c>
       <c r="H21">
-        <v>0.0004206124397738709</v>
+        <v>0.0004567469801664004</v>
       </c>
       <c r="I21">
-        <v>0.00187549774760587</v>
+        <v>0.002282275278876256</v>
       </c>
       <c r="J21">
-        <v>0.3655146738111199</v>
+        <v>0.2832094821203199</v>
       </c>
       <c r="K21">
-        <v>0.4095767914292914</v>
+        <v>0.3503229719715293</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1519878046188694</v>
       </c>
       <c r="M21">
-        <v>1.506445924360065</v>
+        <v>0.1202050392377316</v>
       </c>
       <c r="N21">
-        <v>0.438255254992157</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.481968881377099</v>
       </c>
       <c r="P21">
-        <v>0.7242022454067421</v>
+        <v>0.4473936647846841</v>
       </c>
       <c r="Q21">
-        <v>1.745577506630951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7218532369959476</v>
+      </c>
+      <c r="S21">
+        <v>1.524416253824427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.865974648387606</v>
+        <v>1.737932787710264</v>
       </c>
       <c r="C22">
-        <v>0.1982186925115172</v>
+        <v>0.2026308846116507</v>
       </c>
       <c r="D22">
-        <v>0.3490335918964007</v>
+        <v>0.3487998017549501</v>
       </c>
       <c r="E22">
-        <v>0.1239775029747179</v>
+        <v>0.1159847365743403</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.506005734715373</v>
+        <v>0.5668368702387596</v>
       </c>
       <c r="H22">
-        <v>0.0008652784550493564</v>
+        <v>0.0008625418616434732</v>
       </c>
       <c r="I22">
-        <v>0.001962179823980392</v>
+        <v>0.002283145742093318</v>
       </c>
       <c r="J22">
-        <v>0.3715884092047048</v>
+        <v>0.2444879537297595</v>
       </c>
       <c r="K22">
-        <v>0.4168085271399775</v>
+        <v>0.3482407286799578</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1476891868337979</v>
       </c>
       <c r="M22">
-        <v>1.615286937716604</v>
+        <v>0.1247742249464743</v>
       </c>
       <c r="N22">
-        <v>0.4680876158181206</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.576594891408917</v>
       </c>
       <c r="P22">
-        <v>0.7036058773889948</v>
+        <v>0.4767351179629031</v>
       </c>
       <c r="Q22">
-        <v>1.799590805520552</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.7058616779269897</v>
+      </c>
+      <c r="S22">
+        <v>1.528003945732962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.799840307449955</v>
+        <v>1.682601353924326</v>
       </c>
       <c r="C23">
-        <v>0.1938261773032863</v>
+        <v>0.1986663524317152</v>
       </c>
       <c r="D23">
-        <v>0.3359003934104123</v>
+        <v>0.3357424334004406</v>
       </c>
       <c r="E23">
-        <v>0.120754006387056</v>
+        <v>0.1127543708050176</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4969763429514273</v>
+        <v>0.5237473790148073</v>
       </c>
       <c r="H23">
-        <v>0.0006119646737636764</v>
+        <v>0.000636037667485434</v>
       </c>
       <c r="I23">
-        <v>0.001599103111940003</v>
+        <v>0.001910298338578365</v>
       </c>
       <c r="J23">
-        <v>0.3690106806504048</v>
+        <v>0.2712495039350316</v>
       </c>
       <c r="K23">
-        <v>0.4141724564999194</v>
+        <v>0.3513881767735647</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1506490793041735</v>
       </c>
       <c r="M23">
-        <v>1.557257279879423</v>
+        <v>0.1231681832861788</v>
       </c>
       <c r="N23">
-        <v>0.4519133563843667</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.528226898478323</v>
       </c>
       <c r="P23">
-        <v>0.7145013318530857</v>
+        <v>0.4609908574866637</v>
       </c>
       <c r="Q23">
-        <v>1.774943961897833</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.713702815959941</v>
+      </c>
+      <c r="S23">
+        <v>1.535833122324505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.544495499689816</v>
+        <v>1.460550826929904</v>
       </c>
       <c r="C24">
-        <v>0.1782626028490455</v>
+        <v>0.182575328176128</v>
       </c>
       <c r="D24">
-        <v>0.2865563084852027</v>
+        <v>0.2866106018034458</v>
       </c>
       <c r="E24">
-        <v>0.1081500299363185</v>
+        <v>0.1007308214247722</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4615861058240114</v>
+        <v>0.4131640173148838</v>
       </c>
       <c r="H24">
-        <v>4.248407743334681E-05</v>
+        <v>7.772341165046548E-05</v>
       </c>
       <c r="I24">
-        <v>0.001116954299551942</v>
+        <v>0.001374238620198476</v>
       </c>
       <c r="J24">
-        <v>0.358736008271805</v>
+        <v>0.3538049768938123</v>
       </c>
       <c r="K24">
-        <v>0.4027167409905168</v>
+        <v>0.3564222797275391</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1599653403180881</v>
       </c>
       <c r="M24">
-        <v>1.337577039620669</v>
+        <v>0.1146610282004445</v>
       </c>
       <c r="N24">
-        <v>0.3912053135257594</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.332704918541538</v>
       </c>
       <c r="P24">
-        <v>0.7570954722709224</v>
+        <v>0.4009109900614618</v>
       </c>
       <c r="Q24">
-        <v>1.677984546472942</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7478777770511371</v>
+      </c>
+      <c r="S24">
+        <v>1.527545167748627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.268623219803942</v>
+        <v>1.206364757862929</v>
       </c>
       <c r="C25">
-        <v>0.1616097704017108</v>
+        <v>0.1606730533252616</v>
       </c>
       <c r="D25">
-        <v>0.2340592534380619</v>
+        <v>0.2342054202428727</v>
       </c>
       <c r="E25">
-        <v>0.09449815277471885</v>
+        <v>0.0886641775964101</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4254342047909319</v>
+        <v>0.3786916344073887</v>
       </c>
       <c r="H25">
-        <v>0.0001973395436241088</v>
+        <v>0.0001067517408914753</v>
       </c>
       <c r="I25">
-        <v>0.001450626641847919</v>
+        <v>0.001475800739938471</v>
       </c>
       <c r="J25">
-        <v>0.348892574377075</v>
+        <v>0.3534716662306465</v>
       </c>
       <c r="K25">
-        <v>0.3915075460388344</v>
+        <v>0.3520823148793859</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1668178567699101</v>
       </c>
       <c r="M25">
-        <v>1.100847491344439</v>
+        <v>0.1031866595733426</v>
       </c>
       <c r="N25">
-        <v>0.3259516494753001</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.099200555560344</v>
       </c>
       <c r="P25">
-        <v>0.8055438071551144</v>
+        <v>0.3344809589236917</v>
       </c>
       <c r="Q25">
-        <v>1.580252902766119</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7904758525992506</v>
+      </c>
+      <c r="S25">
+        <v>1.458885522440383</v>
       </c>
     </row>
   </sheetData>
